--- a/--MANUSCRIPT--/Submission Files/Supplementary file 1- Table of quantified metabolites.xlsx
+++ b/--MANUSCRIPT--/Submission Files/Supplementary file 1- Table of quantified metabolites.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satyakam/Dropbox/Work/component_contribution_ctherm/--MANUSCRIPT--/Submission Files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2680" yWindow="2560" windowWidth="25340" windowHeight="12860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$266</definedName>
+  </definedNames>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -259,8 +275,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +339,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,12 +390,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -401,14 +422,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -435,6 +457,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,14 +633,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -684,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -711,16 +736,16 @@
         <v>8703433</v>
       </c>
       <c r="O2">
-        <v>3.400159118985313</v>
+        <v>3.4001591189853131</v>
       </c>
       <c r="P2">
-        <v>217.958917883674</v>
+        <v>217.95891788367399</v>
       </c>
       <c r="Q2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -737,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -764,16 +789,16 @@
         <v>5454995</v>
       </c>
       <c r="O3">
-        <v>2.143402814909418</v>
+        <v>2.1434028149094182</v>
       </c>
       <c r="P3">
-        <v>137.3976163403474</v>
+        <v>137.39761634034741</v>
       </c>
       <c r="Q3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -808,25 +833,25 @@
         <v>7.41</v>
       </c>
       <c r="L4">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
       </c>
       <c r="N4">
-        <v>746916.0600000001</v>
+        <v>746916.06</v>
       </c>
       <c r="O4">
-        <v>0.3514057288833132</v>
+        <v>0.35140572888331317</v>
       </c>
       <c r="P4">
-        <v>22.51812691732978</v>
+        <v>22.518126917329781</v>
       </c>
       <c r="Q4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -861,7 +886,7 @@
         <v>7.41</v>
       </c>
       <c r="L5">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -870,16 +895,16 @@
         <v>1038694</v>
       </c>
       <c r="O5">
-        <v>0.5040237329704577</v>
+        <v>0.50402373297045766</v>
       </c>
       <c r="P5">
-        <v>32.29790938366813</v>
+        <v>32.297909383668127</v>
       </c>
       <c r="Q5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -896,7 +921,7 @@
         <v>9</v>
       </c>
       <c r="F6">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -908,31 +933,31 @@
         <v>40</v>
       </c>
       <c r="J6">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K6">
         <v>6.67</v>
       </c>
       <c r="L6">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M6" t="s">
         <v>32</v>
       </c>
       <c r="N6">
-        <v>599322.4399999999</v>
+        <v>599322.43999999994</v>
       </c>
       <c r="O6">
-        <v>0.2730581033670836</v>
+        <v>0.27305810336708358</v>
       </c>
       <c r="P6">
-        <v>18.09825215821026</v>
+        <v>18.098252158210261</v>
       </c>
       <c r="Q6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -949,7 +974,7 @@
         <v>9</v>
       </c>
       <c r="F7">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -961,31 +986,31 @@
         <v>40</v>
       </c>
       <c r="J7">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K7">
         <v>6.67</v>
       </c>
       <c r="L7">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M7" t="s">
         <v>32</v>
       </c>
       <c r="N7">
-        <v>752381.9399999999</v>
+        <v>752381.94</v>
       </c>
       <c r="O7">
         <v>0.3543072006363378</v>
       </c>
       <c r="P7">
-        <v>23.48343074062027</v>
+        <v>23.483430740620271</v>
       </c>
       <c r="Q7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1002,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1029,16 +1054,16 @@
         <v>7282117.5</v>
       </c>
       <c r="O8">
-        <v>2.850280311168823</v>
+        <v>2.8502803111688229</v>
       </c>
       <c r="P8">
-        <v>174.0097870066437</v>
+        <v>174.00978700664371</v>
       </c>
       <c r="Q8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1055,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1082,16 +1107,16 @@
         <v>9640769</v>
       </c>
       <c r="O9">
-        <v>3.762795846864153</v>
+        <v>3.7627958468641531</v>
       </c>
       <c r="P9">
-        <v>229.7189161699727</v>
+        <v>229.71891616997269</v>
       </c>
       <c r="Q9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1120,13 +1145,13 @@
         <v>0.47</v>
       </c>
       <c r="J10">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K10">
         <v>3.45</v>
       </c>
       <c r="L10">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M10" t="s">
         <v>32</v>
@@ -1135,16 +1160,16 @@
         <v>7655777.5</v>
       </c>
       <c r="O10">
-        <v>2.9948419622088</v>
+        <v>2.9948419622087998</v>
       </c>
       <c r="P10">
-        <v>191.8811083053858</v>
+        <v>191.88110830538579</v>
       </c>
       <c r="Q10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1173,13 +1198,13 @@
         <v>0.47</v>
       </c>
       <c r="J11">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K11">
         <v>3.45</v>
       </c>
       <c r="L11">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M11" t="s">
         <v>32</v>
@@ -1188,7 +1213,7 @@
         <v>9385585</v>
       </c>
       <c r="O11">
-        <v>3.664070212975095</v>
+        <v>3.6640702129750951</v>
       </c>
       <c r="P11">
         <v>234.7589162454091</v>
@@ -1197,7 +1222,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1214,7 +1239,7 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1223,13 +1248,13 @@
         <v>30</v>
       </c>
       <c r="I12">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J12">
         <v>1.4</v>
       </c>
       <c r="K12">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L12">
         <v>1.554</v>
@@ -1241,16 +1266,16 @@
         <v>7020078</v>
       </c>
       <c r="O12">
-        <v>2.74890242015108</v>
+        <v>2.7489024201510799</v>
       </c>
       <c r="P12">
-        <v>226.7846764471406</v>
+        <v>226.78467644714061</v>
       </c>
       <c r="Q12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1267,7 +1292,7 @@
         <v>9</v>
       </c>
       <c r="F13">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1276,13 +1301,13 @@
         <v>31</v>
       </c>
       <c r="I13">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J13">
         <v>1.4</v>
       </c>
       <c r="K13">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L13">
         <v>1.554</v>
@@ -1294,16 +1319,16 @@
         <v>8089833.5</v>
       </c>
       <c r="O13">
-        <v>3.162769629081914</v>
+        <v>3.1627696290819141</v>
       </c>
       <c r="P13">
-        <v>260.9287553280133</v>
+        <v>260.92875532801332</v>
       </c>
       <c r="Q13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1320,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1347,16 +1372,16 @@
         <v>1346292.12</v>
       </c>
       <c r="O14">
-        <v>6.497534942953582</v>
+        <v>6.4975349429535818</v>
       </c>
       <c r="P14">
-        <v>416.5086501893322</v>
+        <v>416.50865018933217</v>
       </c>
       <c r="Q14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1373,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1397,19 +1422,19 @@
         <v>33</v>
       </c>
       <c r="N15">
-        <v>664678.6899999999</v>
+        <v>664678.68999999994</v>
       </c>
       <c r="O15">
-        <v>3.278003547665652</v>
+        <v>3.2780035476656519</v>
       </c>
       <c r="P15">
-        <v>210.1284325426701</v>
+        <v>210.12843254267011</v>
       </c>
       <c r="Q15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1444,7 +1469,7 @@
         <v>7.41</v>
       </c>
       <c r="L16">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M16" t="s">
         <v>33</v>
@@ -1453,16 +1478,16 @@
         <v>14605.25</v>
       </c>
       <c r="O16">
-        <v>0.11597823137371</v>
+        <v>0.11597823137370999</v>
       </c>
       <c r="P16">
-        <v>7.431900845839212</v>
+        <v>7.4319008458392117</v>
       </c>
       <c r="Q16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1479,7 +1504,7 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1491,13 +1516,13 @@
         <v>40</v>
       </c>
       <c r="J17">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K17">
         <v>6.67</v>
       </c>
       <c r="L17">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M17" t="s">
         <v>33</v>
@@ -1506,7 +1531,7 @@
         <v>10466.16</v>
       </c>
       <c r="O17">
-        <v>0.09172611720306623</v>
+        <v>9.1726117203066226E-2</v>
       </c>
       <c r="P17">
         <v>6.079593969796683</v>
@@ -1515,7 +1540,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1532,7 +1557,7 @@
         <v>9</v>
       </c>
       <c r="F18">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1544,13 +1569,13 @@
         <v>40</v>
       </c>
       <c r="J18">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K18">
         <v>6.67</v>
       </c>
       <c r="L18">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M18" t="s">
         <v>33</v>
@@ -1559,16 +1584,16 @@
         <v>11074.24</v>
       </c>
       <c r="O18">
-        <v>0.09528903213965495</v>
+        <v>9.528903213965495E-2</v>
       </c>
       <c r="P18">
-        <v>6.315743463788992</v>
+        <v>6.3157434637889924</v>
       </c>
       <c r="Q18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1585,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1612,16 +1637,16 @@
         <v>95931.12</v>
       </c>
       <c r="O19">
-        <v>0.6002942090829747</v>
+        <v>0.60029420908297471</v>
       </c>
       <c r="P19">
-        <v>36.64799811251373</v>
+        <v>36.647998112513733</v>
       </c>
       <c r="Q19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1638,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1662,19 +1687,19 @@
         <v>33</v>
       </c>
       <c r="N20">
-        <v>156342.64</v>
+        <v>156342.64000000001</v>
       </c>
       <c r="O20">
-        <v>0.9841309093447754</v>
+        <v>0.98413090934477543</v>
       </c>
       <c r="P20">
-        <v>60.08125209675065</v>
+        <v>60.081252096750653</v>
       </c>
       <c r="Q20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1703,13 +1728,13 @@
         <v>0.47</v>
       </c>
       <c r="J21">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K21">
         <v>3.45</v>
       </c>
       <c r="L21">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M21" t="s">
         <v>33</v>
@@ -1718,16 +1743,16 @@
         <v>40546.85</v>
       </c>
       <c r="O21">
-        <v>0.2679774981133006</v>
+        <v>0.26797749811330063</v>
       </c>
       <c r="P21">
-        <v>17.16946002084219</v>
+        <v>17.169460020842191</v>
       </c>
       <c r="Q21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1756,13 +1781,13 @@
         <v>0.47</v>
       </c>
       <c r="J22">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K22">
         <v>3.45</v>
       </c>
       <c r="L22">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M22" t="s">
         <v>33</v>
@@ -1771,16 +1796,16 @@
         <v>10698.39</v>
       </c>
       <c r="O22">
-        <v>0.09308681930759852</v>
+        <v>9.3086819307598517E-2</v>
       </c>
       <c r="P22">
-        <v>5.964121740898688</v>
+        <v>5.9641217408986877</v>
       </c>
       <c r="Q22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1797,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="F23">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1806,13 +1831,13 @@
         <v>30</v>
       </c>
       <c r="I23">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J23">
         <v>1.4</v>
       </c>
       <c r="K23">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L23">
         <v>1.554</v>
@@ -1827,13 +1852,13 @@
         <v>1.051022844079313</v>
       </c>
       <c r="P23">
-        <v>86.70947134601469</v>
+        <v>86.709471346014695</v>
       </c>
       <c r="Q23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1850,7 +1875,7 @@
         <v>9</v>
       </c>
       <c r="F24">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1859,13 +1884,13 @@
         <v>31</v>
       </c>
       <c r="I24">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J24">
         <v>1.4</v>
       </c>
       <c r="K24">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L24">
         <v>1.554</v>
@@ -1874,19 +1899,19 @@
         <v>33</v>
       </c>
       <c r="N24">
-        <v>288419.78</v>
+        <v>288419.78000000003</v>
       </c>
       <c r="O24">
-        <v>1.583551187596819</v>
+        <v>1.5835511875968189</v>
       </c>
       <c r="P24">
-        <v>130.6431036198412</v>
+        <v>130.64310361984121</v>
       </c>
       <c r="Q24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1903,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1927,19 +1952,19 @@
         <v>34</v>
       </c>
       <c r="N25">
-        <v>988751.0600000001</v>
+        <v>988751.06</v>
       </c>
       <c r="O25">
         <v>1.833073826570836</v>
       </c>
       <c r="P25">
-        <v>117.5047324724895</v>
+        <v>117.50473247248949</v>
       </c>
       <c r="Q25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1956,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1983,16 +2008,16 @@
         <v>3026707</v>
       </c>
       <c r="O26">
-        <v>4.939360744734087</v>
+        <v>4.9393607447340866</v>
       </c>
       <c r="P26">
-        <v>316.6256887650057</v>
+        <v>316.62568876500569</v>
       </c>
       <c r="Q26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2027,7 +2052,7 @@
         <v>7.41</v>
       </c>
       <c r="L27">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M27" t="s">
         <v>34</v>
@@ -2036,7 +2061,7 @@
         <v>3759455</v>
       </c>
       <c r="O27">
-        <v>6.179863346703256</v>
+        <v>6.1798633467032564</v>
       </c>
       <c r="P27">
         <v>396.0064840577117</v>
@@ -2045,7 +2070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2080,7 +2105,7 @@
         <v>7.41</v>
       </c>
       <c r="L28">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M28" t="s">
         <v>34</v>
@@ -2089,16 +2114,16 @@
         <v>5896767.5</v>
       </c>
       <c r="O28">
-        <v>9.818921399240541</v>
+        <v>9.8189213992405406</v>
       </c>
       <c r="P28">
-        <v>629.1978191761435</v>
+        <v>629.19781917614353</v>
       </c>
       <c r="Q28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2115,7 +2140,7 @@
         <v>9</v>
       </c>
       <c r="F29">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2127,13 +2152,13 @@
         <v>40</v>
       </c>
       <c r="J29">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K29">
         <v>6.67</v>
       </c>
       <c r="L29">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M29" t="s">
         <v>34</v>
@@ -2145,13 +2170,13 @@
         <v>6.500109394147966</v>
       </c>
       <c r="P29">
-        <v>430.8263238505394</v>
+        <v>430.82632385053938</v>
       </c>
       <c r="Q29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2168,7 +2193,7 @@
         <v>9</v>
       </c>
       <c r="F30">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2180,13 +2205,13 @@
         <v>40</v>
       </c>
       <c r="J30">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K30">
         <v>6.67</v>
       </c>
       <c r="L30">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M30" t="s">
         <v>34</v>
@@ -2195,16 +2220,16 @@
         <v>5196108.5</v>
       </c>
       <c r="O30">
-        <v>8.625956507100192</v>
+        <v>8.6259565071001916</v>
       </c>
       <c r="P30">
-        <v>571.7271673911183</v>
+        <v>571.72716739111831</v>
       </c>
       <c r="Q30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2221,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2248,16 +2273,16 @@
         <v>2295541.25</v>
       </c>
       <c r="O31">
-        <v>3.824905540057767</v>
+        <v>3.8249055400577672</v>
       </c>
       <c r="P31">
-        <v>233.5107167312435</v>
+        <v>233.51071673124349</v>
       </c>
       <c r="Q31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2274,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -2301,16 +2326,16 @@
         <v>3925079.25</v>
       </c>
       <c r="O32">
-        <v>6.461860602910736</v>
+        <v>6.4618606029107362</v>
       </c>
       <c r="P32">
-        <v>394.4969843046848</v>
+        <v>394.49698430468482</v>
       </c>
       <c r="Q32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2339,13 +2364,13 @@
         <v>0.47</v>
       </c>
       <c r="J33">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K33">
         <v>3.45</v>
       </c>
       <c r="L33">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M33" t="s">
         <v>34</v>
@@ -2357,13 +2382,13 @@
         <v>1.011526533114008</v>
       </c>
       <c r="P33">
-        <v>64.80903991042992</v>
+        <v>64.809039910429917</v>
       </c>
       <c r="Q33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2392,13 +2417,13 @@
         <v>0.47</v>
       </c>
       <c r="J34">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K34">
         <v>3.45</v>
       </c>
       <c r="L34">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M34" t="s">
         <v>34</v>
@@ -2416,7 +2441,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2433,7 +2458,7 @@
         <v>9</v>
       </c>
       <c r="F35">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2442,13 +2467,13 @@
         <v>30</v>
       </c>
       <c r="I35">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J35">
         <v>1.4</v>
       </c>
       <c r="K35">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L35">
         <v>1.554</v>
@@ -2460,16 +2485,16 @@
         <v>2740515.75</v>
       </c>
       <c r="O35">
-        <v>4.503143200223391</v>
+        <v>4.5031432002233913</v>
       </c>
       <c r="P35">
-        <v>371.5096855281154</v>
+        <v>371.50968552811543</v>
       </c>
       <c r="Q35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2486,7 +2511,7 @@
         <v>9</v>
       </c>
       <c r="F36">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -2495,13 +2520,13 @@
         <v>31</v>
       </c>
       <c r="I36">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J36">
         <v>1.4</v>
       </c>
       <c r="K36">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L36">
         <v>1.554</v>
@@ -2513,16 +2538,16 @@
         <v>1386587.38</v>
       </c>
       <c r="O36">
-        <v>2.439462675382851</v>
+        <v>2.4394626753828512</v>
       </c>
       <c r="P36">
-        <v>201.2558719749572</v>
+        <v>201.25587197495719</v>
       </c>
       <c r="Q36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2539,7 +2564,7 @@
         <v>2</v>
       </c>
       <c r="F37">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2569,13 +2594,13 @@
         <v>12.58289029691948</v>
       </c>
       <c r="P37">
-        <v>806.5955318538132</v>
+        <v>806.59553185381321</v>
       </c>
       <c r="Q37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2592,7 +2617,7 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -2619,7 +2644,7 @@
         <v>11147725</v>
       </c>
       <c r="O38">
-        <v>16.67576005810665</v>
+        <v>16.675760058106651</v>
       </c>
       <c r="P38">
         <v>1068.95897808376</v>
@@ -2628,7 +2653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2663,7 +2688,7 @@
         <v>7.41</v>
       </c>
       <c r="L39">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M39" t="s">
         <v>35</v>
@@ -2675,13 +2700,13 @@
         <v>21.10742532488872</v>
       </c>
       <c r="P39">
-        <v>1352.566686588459</v>
+        <v>1352.5666865884591</v>
       </c>
       <c r="Q39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2716,7 +2741,7 @@
         <v>7.41</v>
       </c>
       <c r="L40">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M40" t="s">
         <v>35</v>
@@ -2725,16 +2750,16 @@
         <v>13095355</v>
       </c>
       <c r="O40">
-        <v>21.02244357025585</v>
+        <v>21.022443570255849</v>
       </c>
       <c r="P40">
-        <v>1347.121044189396</v>
+        <v>1347.1210441893959</v>
       </c>
       <c r="Q40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2751,7 +2776,7 @@
         <v>9</v>
       </c>
       <c r="F41">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2763,13 +2788,13 @@
         <v>40</v>
       </c>
       <c r="J41">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K41">
         <v>6.67</v>
       </c>
       <c r="L41">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M41" t="s">
         <v>35</v>
@@ -2781,13 +2806,13 @@
         <v>13.63666137622995</v>
       </c>
       <c r="P41">
-        <v>903.8359716845789</v>
+        <v>903.83597168457891</v>
       </c>
       <c r="Q41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2804,7 +2829,7 @@
         <v>9</v>
       </c>
       <c r="F42">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -2816,13 +2841,13 @@
         <v>40</v>
       </c>
       <c r="J42">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K42">
         <v>6.67</v>
       </c>
       <c r="L42">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M42" t="s">
         <v>35</v>
@@ -2831,16 +2856,16 @@
         <v>11618692</v>
       </c>
       <c r="O42">
-        <v>17.72685523207007</v>
+        <v>17.726855232070069</v>
       </c>
       <c r="P42">
-        <v>1174.933437264794</v>
+        <v>1174.9334372647941</v>
       </c>
       <c r="Q42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2857,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="F43">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2887,13 +2912,13 @@
         <v>13.44383550301497</v>
       </c>
       <c r="P43">
-        <v>820.7469782060422</v>
+        <v>820.74697820604217</v>
       </c>
       <c r="Q43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2910,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="F44">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -2940,13 +2965,13 @@
         <v>15.86521739275986</v>
       </c>
       <c r="P44">
-        <v>968.5724904004799</v>
+        <v>968.57249040047986</v>
       </c>
       <c r="Q44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2975,13 +3000,13 @@
         <v>0.47</v>
       </c>
       <c r="J45">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K45">
         <v>3.45</v>
       </c>
       <c r="L45">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M45" t="s">
         <v>35</v>
@@ -2990,16 +3015,16 @@
         <v>21943872</v>
       </c>
       <c r="O45">
-        <v>40.77039515801735</v>
+        <v>40.770395158017351</v>
       </c>
       <c r="P45">
-        <v>2612.18077871432</v>
+        <v>2612.1807787143198</v>
       </c>
       <c r="Q45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3028,13 +3053,13 @@
         <v>0.47</v>
       </c>
       <c r="J46">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K46">
         <v>3.45</v>
       </c>
       <c r="L46">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M46" t="s">
         <v>35</v>
@@ -3043,16 +3068,16 @@
         <v>23090290</v>
       </c>
       <c r="O46">
-        <v>43.32894899967673</v>
+        <v>43.328948999676733</v>
       </c>
       <c r="P46">
-        <v>2776.108676410303</v>
+        <v>2776.1086764103029</v>
       </c>
       <c r="Q46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3069,7 +3094,7 @@
         <v>9</v>
       </c>
       <c r="F47">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -3078,13 +3103,13 @@
         <v>30</v>
       </c>
       <c r="I47">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J47">
         <v>1.4</v>
       </c>
       <c r="K47">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L47">
         <v>1.554</v>
@@ -3096,7 +3121,7 @@
         <v>24647830</v>
       </c>
       <c r="O47">
-        <v>46.80503708494594</v>
+        <v>46.805037084945937</v>
       </c>
       <c r="P47">
         <v>3861.419420927461</v>
@@ -3105,7 +3130,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3122,7 +3147,7 @@
         <v>9</v>
       </c>
       <c r="F48">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -3131,13 +3156,13 @@
         <v>31</v>
       </c>
       <c r="I48">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J48">
         <v>1.4</v>
       </c>
       <c r="K48">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L48">
         <v>1.554</v>
@@ -3149,16 +3174,16 @@
         <v>31574288</v>
       </c>
       <c r="O48">
-        <v>62.26337403097467</v>
+        <v>62.263374030974667</v>
       </c>
       <c r="P48">
-        <v>5136.733494288905</v>
+        <v>5136.7334942889047</v>
       </c>
       <c r="Q48" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3175,7 +3200,7 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -3199,19 +3224,19 @@
         <v>36</v>
       </c>
       <c r="N49">
-        <v>623393.0600000001</v>
+        <v>623393.06000000006</v>
       </c>
       <c r="O49">
-        <v>0.5348655544104094</v>
+        <v>0.53486555441040939</v>
       </c>
       <c r="P49">
-        <v>34.28625348784676</v>
+        <v>34.286253487846757</v>
       </c>
       <c r="Q49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3228,7 +3253,7 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -3264,7 +3289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3299,7 +3324,7 @@
         <v>7.41</v>
       </c>
       <c r="L51">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M51" t="s">
         <v>36</v>
@@ -3311,13 +3336,13 @@
         <v>1.480879970106687</v>
       </c>
       <c r="P51">
-        <v>94.89498996547923</v>
+        <v>94.894989965479226</v>
       </c>
       <c r="Q51" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3352,7 +3377,7 @@
         <v>7.41</v>
       </c>
       <c r="L52">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M52" t="s">
         <v>36</v>
@@ -3361,16 +3386,16 @@
         <v>4702771.5</v>
       </c>
       <c r="O52">
-        <v>3.054998320825249</v>
+        <v>3.0549983208252489</v>
       </c>
       <c r="P52">
-        <v>195.7647080461101</v>
+        <v>195.76470804611009</v>
       </c>
       <c r="Q52" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3387,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="F53">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -3399,13 +3424,13 @@
         <v>40</v>
       </c>
       <c r="J53">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K53">
         <v>6.67</v>
       </c>
       <c r="L53">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M53" t="s">
         <v>36</v>
@@ -3423,7 +3448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3440,7 +3465,7 @@
         <v>9</v>
       </c>
       <c r="F54">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -3452,13 +3477,13 @@
         <v>40</v>
       </c>
       <c r="J54">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K54">
         <v>6.67</v>
       </c>
       <c r="L54">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M54" t="s">
         <v>36</v>
@@ -3467,16 +3492,16 @@
         <v>5082503</v>
       </c>
       <c r="O54">
-        <v>3.27924491219047</v>
+        <v>3.2792449121904701</v>
       </c>
       <c r="P54">
-        <v>217.3478852212137</v>
+        <v>217.34788522121369</v>
       </c>
       <c r="Q54" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3493,7 +3518,7 @@
         <v>2</v>
       </c>
       <c r="F55">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -3529,7 +3554,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3546,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="F56">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -3582,7 +3607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3599,7 +3624,7 @@
         <v>9</v>
       </c>
       <c r="F57">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -3608,13 +3633,13 @@
         <v>30</v>
       </c>
       <c r="I57">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J57">
         <v>1.4</v>
       </c>
       <c r="K57">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L57">
         <v>1.554</v>
@@ -3626,7 +3651,7 @@
         <v>250174.48</v>
       </c>
       <c r="O57">
-        <v>0.1855666078868836</v>
+        <v>0.18556660788688359</v>
       </c>
       <c r="P57">
         <v>15.30926045992836</v>
@@ -3635,7 +3660,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3652,7 +3677,7 @@
         <v>9</v>
       </c>
       <c r="F58">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -3661,13 +3686,13 @@
         <v>31</v>
       </c>
       <c r="I58">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J58">
         <v>1.4</v>
       </c>
       <c r="K58">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L58">
         <v>1.554</v>
@@ -3679,16 +3704,16 @@
         <v>64782.12</v>
       </c>
       <c r="O58">
-        <v>0.007994043340981069</v>
+        <v>7.9940433409810691E-3</v>
       </c>
       <c r="P58">
-        <v>0.6595092351401735</v>
+        <v>0.65950923514017346</v>
       </c>
       <c r="Q58" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3705,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -3732,16 +3757,16 @@
         <v>58503476</v>
       </c>
       <c r="O59">
-        <v>415.1192686811136</v>
+        <v>415.11926868111362</v>
       </c>
       <c r="P59">
-        <v>26610.20953084062</v>
+        <v>26610.209530840621</v>
       </c>
       <c r="Q59" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3758,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="F60">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -3785,16 +3810,16 @@
         <v>58143076</v>
       </c>
       <c r="O60">
-        <v>412.4827429377951</v>
+        <v>412.48274293779508</v>
       </c>
       <c r="P60">
-        <v>26441.20147037148</v>
+        <v>26441.201470371481</v>
       </c>
       <c r="Q60" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3829,7 +3854,7 @@
         <v>7.41</v>
       </c>
       <c r="L61">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M61" t="s">
         <v>37</v>
@@ -3838,16 +3863,16 @@
         <v>57423696</v>
       </c>
       <c r="O61">
-        <v>407.2200795381601</v>
+        <v>407.22007953816012</v>
       </c>
       <c r="P61">
-        <v>26094.71810111078</v>
+        <v>26094.718101110779</v>
       </c>
       <c r="Q61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3882,7 +3907,7 @@
         <v>7.41</v>
       </c>
       <c r="L62">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M62" t="s">
         <v>37</v>
@@ -3891,16 +3916,16 @@
         <v>53992224</v>
       </c>
       <c r="O62">
-        <v>382.116960044607</v>
+        <v>382.11696004460703</v>
       </c>
       <c r="P62">
-        <v>24486.10678856035</v>
+        <v>24486.106788560352</v>
       </c>
       <c r="Q62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3917,7 +3942,7 @@
         <v>9</v>
       </c>
       <c r="F63">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -3929,13 +3954,13 @@
         <v>40</v>
       </c>
       <c r="J63">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K63">
         <v>6.67</v>
       </c>
       <c r="L63">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M63" t="s">
         <v>37</v>
@@ -3944,7 +3969,7 @@
         <v>59674464</v>
       </c>
       <c r="O63">
-        <v>423.6856948939799</v>
+        <v>423.68569489397993</v>
       </c>
       <c r="P63">
         <v>28081.82744794579</v>
@@ -3953,7 +3978,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3970,7 +3995,7 @@
         <v>9</v>
       </c>
       <c r="F64">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -3982,13 +4007,13 @@
         <v>40</v>
       </c>
       <c r="J64">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K64">
         <v>6.67</v>
       </c>
       <c r="L64">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M64" t="s">
         <v>37</v>
@@ -3997,16 +4022,16 @@
         <v>53990060</v>
       </c>
       <c r="O64">
-        <v>382.1011291852603</v>
+        <v>382.10112918526028</v>
       </c>
       <c r="P64">
-        <v>25325.60836195035</v>
+        <v>25325.608361950352</v>
       </c>
       <c r="Q64" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4023,7 +4048,7 @@
         <v>2</v>
       </c>
       <c r="F65">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -4050,16 +4075,16 @@
         <v>51708464</v>
       </c>
       <c r="O65">
-        <v>365.4099899237385</v>
+        <v>365.40998992373852</v>
       </c>
       <c r="P65">
-        <v>22308.30219314643</v>
+        <v>22308.302193146432</v>
       </c>
       <c r="Q65" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4076,7 +4101,7 @@
         <v>2</v>
       </c>
       <c r="F66">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -4103,16 +4128,16 @@
         <v>52675532</v>
       </c>
       <c r="O66">
-        <v>372.4846283186872</v>
+        <v>372.48462831868721</v>
       </c>
       <c r="P66">
-        <v>22740.20929906516</v>
+        <v>22740.209299065162</v>
       </c>
       <c r="Q66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4141,13 +4166,13 @@
         <v>0.47</v>
       </c>
       <c r="J67">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K67">
         <v>3.45</v>
       </c>
       <c r="L67">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M67" t="s">
         <v>37</v>
@@ -4156,7 +4181,7 @@
         <v>47525468</v>
       </c>
       <c r="O67">
-        <v>334.809055855486</v>
+        <v>334.80905585548601</v>
       </c>
       <c r="P67">
         <v>21451.39326846103</v>
@@ -4165,7 +4190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4194,13 +4219,13 @@
         <v>0.47</v>
       </c>
       <c r="J68">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K68">
         <v>3.45</v>
       </c>
       <c r="L68">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M68" t="s">
         <v>37</v>
@@ -4209,7 +4234,7 @@
         <v>47710812</v>
       </c>
       <c r="O68">
-        <v>336.1649499380875</v>
+        <v>336.16494993808749</v>
       </c>
       <c r="P68">
         <v>21538.26611938182</v>
@@ -4218,7 +4243,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4235,7 +4260,7 @@
         <v>9</v>
       </c>
       <c r="F69">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -4244,13 +4269,13 @@
         <v>30</v>
       </c>
       <c r="I69">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J69">
         <v>1.4</v>
       </c>
       <c r="K69">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L69">
         <v>1.554</v>
@@ -4262,16 +4287,16 @@
         <v>39435212</v>
       </c>
       <c r="O69">
-        <v>275.6243493792463</v>
+        <v>275.62434937924633</v>
       </c>
       <c r="P69">
-        <v>22739.03156281939</v>
+        <v>22739.031562819389</v>
       </c>
       <c r="Q69" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4288,7 +4313,7 @@
         <v>9</v>
       </c>
       <c r="F70">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -4297,13 +4322,13 @@
         <v>31</v>
       </c>
       <c r="I70">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J70">
         <v>1.4</v>
       </c>
       <c r="K70">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L70">
         <v>1.554</v>
@@ -4315,16 +4340,16 @@
         <v>36786816</v>
       </c>
       <c r="O70">
-        <v>256.2498648273548</v>
+        <v>256.24986482735483</v>
       </c>
       <c r="P70">
-        <v>21140.63498889176</v>
+        <v>21140.634988891761</v>
       </c>
       <c r="Q70" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4341,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="F71">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -4368,16 +4393,16 @@
         <v>835066.75</v>
       </c>
       <c r="O71">
-        <v>0.8148781005530294</v>
+        <v>0.81487810055302945</v>
       </c>
       <c r="P71">
-        <v>52.23577567647626</v>
+        <v>52.235775676476258</v>
       </c>
       <c r="Q71" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4394,7 +4419,7 @@
         <v>2</v>
       </c>
       <c r="F72">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -4418,7 +4443,7 @@
         <v>38</v>
       </c>
       <c r="N72">
-        <v>1192175.12</v>
+        <v>1192175.1200000001</v>
       </c>
       <c r="O72">
         <v>1.117324055705774</v>
@@ -4430,7 +4455,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4465,7 +4490,7 @@
         <v>7.41</v>
       </c>
       <c r="L73">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M73" t="s">
         <v>38</v>
@@ -4474,16 +4499,16 @@
         <v>493405.03</v>
       </c>
       <c r="O73">
-        <v>0.5035439663544993</v>
+        <v>0.50354396635449927</v>
       </c>
       <c r="P73">
-        <v>32.2671658736429</v>
+        <v>32.267165873642902</v>
       </c>
       <c r="Q73" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4518,7 +4543,7 @@
         <v>7.41</v>
       </c>
       <c r="L74">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M74" t="s">
         <v>38</v>
@@ -4527,16 +4552,16 @@
         <v>369254.62</v>
       </c>
       <c r="O74">
-        <v>0.3785300641170889</v>
+        <v>0.37853006411708889</v>
       </c>
       <c r="P74">
-        <v>24.25625800951006</v>
+        <v>24.256258009510059</v>
       </c>
       <c r="Q74" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4553,7 +4578,7 @@
         <v>9</v>
       </c>
       <c r="F75">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -4565,13 +4590,13 @@
         <v>40</v>
       </c>
       <c r="J75">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K75">
         <v>6.67</v>
       </c>
       <c r="L75">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M75" t="s">
         <v>38</v>
@@ -4580,7 +4605,7 @@
         <v>360025.5</v>
       </c>
       <c r="O75">
-        <v>0.3692081844968678</v>
+        <v>0.36920818449686782</v>
       </c>
       <c r="P75">
         <v>24.4710658262956</v>
@@ -4589,7 +4614,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4606,7 +4631,7 @@
         <v>9</v>
       </c>
       <c r="F76">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -4618,13 +4643,13 @@
         <v>40</v>
       </c>
       <c r="J76">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K76">
         <v>6.67</v>
       </c>
       <c r="L76">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M76" t="s">
         <v>38</v>
@@ -4633,16 +4658,16 @@
         <v>378186.25</v>
       </c>
       <c r="O76">
-        <v>0.3875514637383264</v>
+        <v>0.38755146373832638</v>
       </c>
       <c r="P76">
-        <v>25.68685575901217</v>
+        <v>25.686855759012172</v>
       </c>
       <c r="Q76" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4659,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="F77">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -4686,16 +4711,16 @@
         <v>1154938</v>
       </c>
       <c r="O77">
-        <v>1.088946579021696</v>
+        <v>1.0889465790216959</v>
       </c>
       <c r="P77">
-        <v>66.48025512952967</v>
+        <v>66.480255129529667</v>
       </c>
       <c r="Q77" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4712,7 +4737,7 @@
         <v>2</v>
       </c>
       <c r="F78">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -4736,19 +4761,19 @@
         <v>38</v>
       </c>
       <c r="N78">
-        <v>1265900.62</v>
+        <v>1265900.6200000001</v>
       </c>
       <c r="O78">
-        <v>1.173508413069395</v>
+        <v>1.1735084130693949</v>
       </c>
       <c r="P78">
-        <v>71.64276026064684</v>
+        <v>71.642760260646838</v>
       </c>
       <c r="Q78" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4777,13 +4802,13 @@
         <v>0.47</v>
       </c>
       <c r="J79">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K79">
         <v>3.45</v>
       </c>
       <c r="L79">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M79" t="s">
         <v>38</v>
@@ -4792,16 +4817,16 @@
         <v>446539.25</v>
       </c>
       <c r="O79">
-        <v>0.4565914629669607</v>
+        <v>0.45659146296696068</v>
       </c>
       <c r="P79">
-        <v>29.2540564952755</v>
+        <v>29.254056495275499</v>
       </c>
       <c r="Q79" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4830,13 +4855,13 @@
         <v>0.47</v>
       </c>
       <c r="J80">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K80">
         <v>3.45</v>
       </c>
       <c r="L80">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M80" t="s">
         <v>38</v>
@@ -4845,16 +4870,16 @@
         <v>429279.16</v>
       </c>
       <c r="O80">
-        <v>0.439157896038133</v>
+        <v>0.43915789603813299</v>
       </c>
       <c r="P80">
-        <v>28.13707864261031</v>
+        <v>28.137078642610309</v>
       </c>
       <c r="Q80" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4871,7 +4896,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -4880,13 +4905,13 @@
         <v>30</v>
       </c>
       <c r="I81">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J81">
         <v>1.4</v>
       </c>
       <c r="K81">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L81">
         <v>1.554</v>
@@ -4898,16 +4923,16 @@
         <v>703909.25</v>
       </c>
       <c r="O81">
-        <v>0.69536278960118</v>
+        <v>0.69536278960118003</v>
       </c>
       <c r="P81">
-        <v>57.36748750958487</v>
+        <v>57.367487509584869</v>
       </c>
       <c r="Q81" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4924,7 +4949,7 @@
         <v>9</v>
       </c>
       <c r="F82">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -4933,13 +4958,13 @@
         <v>31</v>
       </c>
       <c r="I82">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J82">
         <v>1.4</v>
       </c>
       <c r="K82">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L82">
         <v>1.554</v>
@@ -4951,16 +4976,16 @@
         <v>1147491</v>
       </c>
       <c r="O82">
-        <v>1.083271406804662</v>
+        <v>1.0832714068046621</v>
       </c>
       <c r="P82">
-        <v>89.36998043136511</v>
+        <v>89.369980431365107</v>
       </c>
       <c r="Q82" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4977,7 +5002,7 @@
         <v>2</v>
       </c>
       <c r="F83">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -5004,16 +5029,16 @@
         <v>61429.18</v>
       </c>
       <c r="O83">
-        <v>0.03968448827444207</v>
+        <v>3.968448827444207E-2</v>
       </c>
       <c r="P83">
-        <v>2.543877453489877</v>
+        <v>2.5438774534898769</v>
       </c>
       <c r="Q83" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5030,7 +5055,7 @@
         <v>2</v>
       </c>
       <c r="F84">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -5057,7 +5082,7 @@
         <v>105322.15</v>
       </c>
       <c r="O84">
-        <v>0.07394440967250236</v>
+        <v>7.3944409672502362E-2</v>
       </c>
       <c r="P84">
         <v>4.740026261057845</v>
@@ -5066,7 +5091,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5101,25 +5126,25 @@
         <v>7.41</v>
       </c>
       <c r="L85">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M85" t="s">
         <v>39</v>
       </c>
       <c r="N85">
-        <v>753735.0600000001</v>
+        <v>753735.06</v>
       </c>
       <c r="O85">
-        <v>0.5729830335303339</v>
+        <v>0.57298303353033386</v>
       </c>
       <c r="P85">
-        <v>36.71683074579884</v>
+        <v>36.716830745798838</v>
       </c>
       <c r="Q85" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5154,25 +5179,25 @@
         <v>7.41</v>
       </c>
       <c r="L86">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M86" t="s">
         <v>39</v>
       </c>
       <c r="N86">
-        <v>1073093.38</v>
+        <v>1073093.3799999999</v>
       </c>
       <c r="O86">
-        <v>0.8002404738792293</v>
+        <v>0.80024047387922925</v>
       </c>
       <c r="P86">
-        <v>51.27951844285457</v>
+        <v>51.279518442854567</v>
       </c>
       <c r="Q86" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5189,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="F87">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -5201,13 +5226,13 @@
         <v>40</v>
       </c>
       <c r="J87">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K87">
         <v>6.67</v>
       </c>
       <c r="L87">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M87" t="s">
         <v>39</v>
@@ -5216,7 +5241,7 @@
         <v>1062891</v>
       </c>
       <c r="O87">
-        <v>0.7929803944666536</v>
+        <v>0.79298039446665358</v>
       </c>
       <c r="P87">
         <v>52.55862748113038</v>
@@ -5225,7 +5250,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5242,7 +5267,7 @@
         <v>9</v>
       </c>
       <c r="F88">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -5254,13 +5279,13 @@
         <v>40</v>
       </c>
       <c r="J88">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K88">
         <v>6.67</v>
       </c>
       <c r="L88">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M88" t="s">
         <v>39</v>
@@ -5269,7 +5294,7 @@
         <v>1463941.62</v>
       </c>
       <c r="O88">
-        <v>1.086412403040499</v>
+        <v>1.0864124030404989</v>
       </c>
       <c r="P88">
         <v>72.00725917150838</v>
@@ -5278,7 +5303,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5295,7 +5320,7 @@
         <v>2</v>
       </c>
       <c r="F89">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -5319,19 +5344,19 @@
         <v>39</v>
       </c>
       <c r="N89">
-        <v>99688.92999999999</v>
+        <v>99688.93</v>
       </c>
       <c r="O89">
-        <v>0.06954749430272945</v>
+        <v>6.9547494302729454E-2</v>
       </c>
       <c r="P89">
-        <v>4.245878773060406</v>
+        <v>4.2458787730604062</v>
       </c>
       <c r="Q89" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5348,7 +5373,7 @@
         <v>2</v>
       </c>
       <c r="F90">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -5372,19 +5397,19 @@
         <v>39</v>
       </c>
       <c r="N90">
-        <v>147847.92</v>
+        <v>147847.92000000001</v>
       </c>
       <c r="O90">
-        <v>0.1071371860463042</v>
+        <v>0.10713718604630421</v>
       </c>
       <c r="P90">
-        <v>6.540731748858618</v>
+        <v>6.5407317488586179</v>
       </c>
       <c r="Q90" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5413,13 +5438,13 @@
         <v>0.47</v>
       </c>
       <c r="J91">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K91">
         <v>3.45</v>
       </c>
       <c r="L91">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M91" t="s">
         <v>39</v>
@@ -5428,16 +5453,16 @@
         <v>117555.03</v>
       </c>
       <c r="O91">
-        <v>0.08349257894133752</v>
+        <v>8.349257894133752E-2</v>
       </c>
       <c r="P91">
-        <v>5.349413686832068</v>
+        <v>5.3494136868320679</v>
       </c>
       <c r="Q91" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5466,13 +5491,13 @@
         <v>0.47</v>
       </c>
       <c r="J92">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K92">
         <v>3.45</v>
       </c>
       <c r="L92">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M92" t="s">
         <v>39</v>
@@ -5481,16 +5506,16 @@
         <v>50386.11</v>
       </c>
       <c r="O92">
-        <v>0.03106500524120742</v>
+        <v>3.1065005241207418E-2</v>
       </c>
       <c r="P92">
-        <v>1.990351314163907</v>
+        <v>1.9903513141639071</v>
       </c>
       <c r="Q92" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5507,7 +5532,7 @@
         <v>9</v>
       </c>
       <c r="F93">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -5516,13 +5541,13 @@
         <v>30</v>
       </c>
       <c r="I93">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J93">
         <v>1.4</v>
       </c>
       <c r="K93">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L93">
         <v>1.554</v>
@@ -5534,7 +5559,7 @@
         <v>190552.56</v>
       </c>
       <c r="O93">
-        <v>0.1404695763979359</v>
+        <v>0.14046957639793589</v>
       </c>
       <c r="P93">
         <v>11.58875164158135</v>
@@ -5543,7 +5568,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5560,7 +5585,7 @@
         <v>9</v>
       </c>
       <c r="F94">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -5569,13 +5594,13 @@
         <v>31</v>
       </c>
       <c r="I94">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J94">
         <v>1.4</v>
       </c>
       <c r="K94">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L94">
         <v>1.554</v>
@@ -5587,7 +5612,7 @@
         <v>58970.94</v>
       </c>
       <c r="O94">
-        <v>0.03776575028114685</v>
+        <v>3.776575028114685E-2</v>
       </c>
       <c r="P94">
         <v>3.11567751387213</v>
@@ -5596,7 +5621,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5613,7 +5638,7 @@
         <v>2</v>
       </c>
       <c r="F95">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -5637,10 +5662,10 @@
         <v>40</v>
       </c>
       <c r="N95">
-        <v>84278.32000000001</v>
+        <v>84278.32</v>
       </c>
       <c r="O95">
-        <v>0.04438210060976879</v>
+        <v>4.4382100609768792E-2</v>
       </c>
       <c r="P95">
         <v>2.845006449344154</v>
@@ -5649,7 +5674,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5666,7 +5691,7 @@
         <v>2</v>
       </c>
       <c r="F96">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -5690,19 +5715,19 @@
         <v>40</v>
       </c>
       <c r="N96">
-        <v>137608.92</v>
+        <v>137608.92000000001</v>
       </c>
       <c r="O96">
         <v>0.1014226265867879</v>
       </c>
       <c r="P96">
-        <v>6.501450422229994</v>
+        <v>6.5014504222299943</v>
       </c>
       <c r="Q96" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5737,25 +5762,25 @@
         <v>7.41</v>
       </c>
       <c r="L97">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M97" t="s">
         <v>40</v>
       </c>
       <c r="N97">
-        <v>944541.0600000001</v>
+        <v>944541.06</v>
       </c>
       <c r="O97">
-        <v>0.8136184591338074</v>
+        <v>0.81361845913380737</v>
       </c>
       <c r="P97">
-        <v>52.13678155810899</v>
+        <v>52.136781558108993</v>
       </c>
       <c r="Q97" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5790,25 +5815,25 @@
         <v>7.41</v>
       </c>
       <c r="L98">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M98" t="s">
         <v>40</v>
       </c>
       <c r="N98">
-        <v>732305.4399999999</v>
+        <v>732305.44</v>
       </c>
       <c r="O98">
-        <v>0.66035036679526</v>
+        <v>0.66035036679526005</v>
       </c>
       <c r="P98">
-        <v>42.31534134817301</v>
+        <v>42.315341348173007</v>
       </c>
       <c r="Q98" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5825,7 +5850,7 @@
         <v>9</v>
       </c>
       <c r="F99">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -5837,31 +5862,31 @@
         <v>40</v>
       </c>
       <c r="J99">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K99">
         <v>6.67</v>
       </c>
       <c r="L99">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M99" t="s">
         <v>40</v>
       </c>
       <c r="N99">
-        <v>981397.3100000001</v>
+        <v>981397.31</v>
       </c>
       <c r="O99">
-        <v>0.840234571585867</v>
+        <v>0.84023457158586701</v>
       </c>
       <c r="P99">
-        <v>55.69062760303318</v>
+        <v>55.690627603033178</v>
       </c>
       <c r="Q99" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5878,7 +5903,7 @@
         <v>9</v>
       </c>
       <c r="F100">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -5890,13 +5915,13 @@
         <v>40</v>
       </c>
       <c r="J100">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K100">
         <v>6.67</v>
       </c>
       <c r="L100">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M100" t="s">
         <v>40</v>
@@ -5905,7 +5930,7 @@
         <v>2088560.62</v>
       </c>
       <c r="O100">
-        <v>1.567831208626192</v>
+        <v>1.5678312086261921</v>
       </c>
       <c r="P100">
         <v>103.915628964443</v>
@@ -5914,7 +5939,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5931,7 +5956,7 @@
         <v>2</v>
       </c>
       <c r="F101">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -5958,16 +5983,16 @@
         <v>233155.7</v>
       </c>
       <c r="O101">
-        <v>0.2036160875006071</v>
+        <v>0.20361608750060711</v>
       </c>
       <c r="P101">
-        <v>12.43077457268664</v>
+        <v>12.430774572686641</v>
       </c>
       <c r="Q101" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5984,7 +6009,7 @@
         <v>2</v>
       </c>
       <c r="F102">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -6008,19 +6033,19 @@
         <v>40</v>
       </c>
       <c r="N102">
-        <v>272498.28</v>
+        <v>272498.28000000003</v>
       </c>
       <c r="O102">
-        <v>0.2456955213808363</v>
+        <v>0.24569552138083631</v>
       </c>
       <c r="P102">
-        <v>14.99972658002664</v>
+        <v>14.999726580026641</v>
       </c>
       <c r="Q102" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6049,13 +6074,13 @@
         <v>0.47</v>
       </c>
       <c r="J103">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K103">
         <v>3.45</v>
       </c>
       <c r="L103">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M103" t="s">
         <v>40</v>
@@ -6067,13 +6092,13 @@
         <v>0.111547307647715</v>
       </c>
       <c r="P103">
-        <v>7.14689499146036</v>
+        <v>7.1468949914603597</v>
       </c>
       <c r="Q103" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6102,13 +6127,13 @@
         <v>0.47</v>
       </c>
       <c r="J104">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K104">
         <v>3.45</v>
       </c>
       <c r="L104">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M104" t="s">
         <v>40</v>
@@ -6117,16 +6142,16 @@
         <v>167979.38</v>
       </c>
       <c r="O104">
-        <v>0.1339057978348897</v>
+        <v>0.13390579783488971</v>
       </c>
       <c r="P104">
-        <v>8.579415281775121</v>
+        <v>8.5794152817751215</v>
       </c>
       <c r="Q104" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6143,7 +6168,7 @@
         <v>9</v>
       </c>
       <c r="F105">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -6152,13 +6177,13 @@
         <v>30</v>
       </c>
       <c r="I105">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J105">
         <v>1.4</v>
       </c>
       <c r="K105">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L105">
         <v>1.554</v>
@@ -6167,19 +6192,19 @@
         <v>40</v>
       </c>
       <c r="N105">
-        <v>156895.36</v>
+        <v>156895.35999999999</v>
       </c>
       <c r="O105">
         <v>0.1220507215608594</v>
       </c>
       <c r="P105">
-        <v>10.0691945979655</v>
+        <v>10.069194597965501</v>
       </c>
       <c r="Q105" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6196,7 +6221,7 @@
         <v>9</v>
       </c>
       <c r="F106">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -6205,13 +6230,13 @@
         <v>31</v>
       </c>
       <c r="I106">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J106">
         <v>1.4</v>
       </c>
       <c r="K106">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L106">
         <v>1.554</v>
@@ -6223,7 +6248,7 @@
         <v>197694.23</v>
       </c>
       <c r="O106">
-        <v>0.1656877517849339</v>
+        <v>0.16568775178493389</v>
       </c>
       <c r="P106">
         <v>13.66925319151024</v>
@@ -6232,7 +6257,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6249,7 +6274,7 @@
         <v>2</v>
       </c>
       <c r="F107">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -6279,13 +6304,13 @@
         <v>22.69007671458391</v>
       </c>
       <c r="P107">
-        <v>1454.492097088713</v>
+        <v>1454.4920970887131</v>
       </c>
       <c r="Q107" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6302,7 +6327,7 @@
         <v>2</v>
       </c>
       <c r="F108">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -6329,16 +6354,16 @@
         <v>10653044</v>
       </c>
       <c r="O108">
-        <v>25.84654866475539</v>
+        <v>25.846548664755389</v>
       </c>
       <c r="P108">
-        <v>1656.830042612525</v>
+        <v>1656.8300426125249</v>
       </c>
       <c r="Q108" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6373,7 +6398,7 @@
         <v>7.41</v>
       </c>
       <c r="L109">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M109" t="s">
         <v>41</v>
@@ -6391,7 +6416,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6426,7 +6451,7 @@
         <v>7.41</v>
       </c>
       <c r="L110">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M110" t="s">
         <v>41</v>
@@ -6435,7 +6460,7 @@
         <v>13666637</v>
       </c>
       <c r="O110">
-        <v>35.20789071391957</v>
+        <v>35.207890713919568</v>
       </c>
       <c r="P110">
         <v>2256.126427155596</v>
@@ -6444,7 +6469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6461,7 +6486,7 @@
         <v>9</v>
       </c>
       <c r="F111">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -6473,13 +6498,13 @@
         <v>40</v>
       </c>
       <c r="J111">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K111">
         <v>6.67</v>
       </c>
       <c r="L111">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M111" t="s">
         <v>41</v>
@@ -6488,7 +6513,7 @@
         <v>14645869</v>
       </c>
       <c r="O111">
-        <v>38.24974994888831</v>
+        <v>38.249749948888308</v>
       </c>
       <c r="P111">
         <v>2535.18797291595</v>
@@ -6497,7 +6522,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6514,7 +6539,7 @@
         <v>2</v>
       </c>
       <c r="F112">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -6541,7 +6566,7 @@
         <v>12311180</v>
       </c>
       <c r="O112">
-        <v>30.99733653160831</v>
+        <v>30.997336531608308</v>
       </c>
       <c r="P112">
         <v>1892.389287643975</v>
@@ -6550,7 +6575,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6567,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="F113">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -6594,16 +6619,16 @@
         <v>13894035</v>
       </c>
       <c r="O113">
-        <v>35.91427357958717</v>
+        <v>35.914273579587167</v>
       </c>
       <c r="P113">
-        <v>2192.568594602392</v>
+        <v>2192.5685946023918</v>
       </c>
       <c r="Q113" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6632,13 +6657,13 @@
         <v>0.47</v>
       </c>
       <c r="J114">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K114">
         <v>3.45</v>
       </c>
       <c r="L114">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M114" t="s">
         <v>41</v>
@@ -6647,7 +6672,7 @@
         <v>13238341</v>
       </c>
       <c r="O114">
-        <v>33.87744385056118</v>
+        <v>33.877443850561178</v>
       </c>
       <c r="P114">
         <v>2170.545743190019</v>
@@ -6656,7 +6681,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6685,13 +6710,13 @@
         <v>0.47</v>
       </c>
       <c r="J115">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K115">
         <v>3.45</v>
       </c>
       <c r="L115">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M115" t="s">
         <v>41</v>
@@ -6700,16 +6725,16 @@
         <v>12560679</v>
       </c>
       <c r="O115">
-        <v>31.77237333316858</v>
+        <v>31.772373333168581</v>
       </c>
       <c r="P115">
-        <v>2035.672761899088</v>
+        <v>2035.6727618990881</v>
       </c>
       <c r="Q115" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6726,7 +6751,7 @@
         <v>9</v>
       </c>
       <c r="F116">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -6735,13 +6760,13 @@
         <v>30</v>
       </c>
       <c r="I116">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J116">
         <v>1.4</v>
       </c>
       <c r="K116">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L116">
         <v>1.554</v>
@@ -6756,13 +6781,13 @@
         <v>42.2494653188905</v>
       </c>
       <c r="P116">
-        <v>3485.584374392841</v>
+        <v>3485.5843743928408</v>
       </c>
       <c r="Q116" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6779,7 +6804,7 @@
         <v>9</v>
       </c>
       <c r="F117">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -6788,13 +6813,13 @@
         <v>31</v>
       </c>
       <c r="I117">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J117">
         <v>1.4</v>
       </c>
       <c r="K117">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L117">
         <v>1.554</v>
@@ -6806,16 +6831,16 @@
         <v>20345576</v>
       </c>
       <c r="O117">
-        <v>55.95516232773822</v>
+        <v>55.955162327738222</v>
       </c>
       <c r="P117">
-        <v>4616.305508343912</v>
+        <v>4616.3055083439122</v>
       </c>
       <c r="Q117" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6832,7 +6857,7 @@
         <v>2</v>
       </c>
       <c r="F118">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -6859,16 +6884,16 @@
         <v>7305301.5</v>
       </c>
       <c r="O118">
-        <v>7.820901458987474</v>
+        <v>7.8209014589874739</v>
       </c>
       <c r="P118">
-        <v>501.3398371145818</v>
+        <v>501.33983711458183</v>
       </c>
       <c r="Q118" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6885,7 +6910,7 @@
         <v>2</v>
       </c>
       <c r="F119">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -6912,16 +6937,16 @@
         <v>10474333</v>
       </c>
       <c r="O119">
-        <v>12.7072681891125</v>
+        <v>12.707268189112501</v>
       </c>
       <c r="P119">
-        <v>814.5684736610577</v>
+        <v>814.56847366105774</v>
       </c>
       <c r="Q119" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6956,7 +6981,7 @@
         <v>7.41</v>
       </c>
       <c r="L120">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M120" t="s">
         <v>42</v>
@@ -6965,16 +6990,16 @@
         <v>26822526</v>
       </c>
       <c r="O120">
-        <v>46.7231589378309</v>
+        <v>46.723158937830902</v>
       </c>
       <c r="P120">
-        <v>2994.026381653018</v>
+        <v>2994.0263816530178</v>
       </c>
       <c r="Q120" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7009,7 +7034,7 @@
         <v>7.41</v>
       </c>
       <c r="L121">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M121" t="s">
         <v>42</v>
@@ -7018,7 +7043,7 @@
         <v>27504342</v>
       </c>
       <c r="O121">
-        <v>48.14182206266239</v>
+        <v>48.141822062662392</v>
       </c>
       <c r="P121">
         <v>3084.934507708354</v>
@@ -7027,7 +7052,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7044,7 +7069,7 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -7056,13 +7081,13 @@
         <v>40</v>
       </c>
       <c r="J122">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K122">
         <v>6.67</v>
       </c>
       <c r="L122">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M122" t="s">
         <v>42</v>
@@ -7071,16 +7096,16 @@
         <v>97515328</v>
       </c>
       <c r="O122">
-        <v>193.8145609999904</v>
+        <v>193.81456099999039</v>
       </c>
       <c r="P122">
-        <v>12846.00146876101</v>
+        <v>12846.001468761009</v>
       </c>
       <c r="Q122" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7097,7 +7122,7 @@
         <v>9</v>
       </c>
       <c r="F123">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -7109,13 +7134,13 @@
         <v>40</v>
       </c>
       <c r="J123">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K123">
         <v>6.67</v>
       </c>
       <c r="L123">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M123" t="s">
         <v>42</v>
@@ -7124,16 +7149,16 @@
         <v>91017952</v>
       </c>
       <c r="O123">
-        <v>180.2953890542381</v>
+        <v>180.29538905423809</v>
       </c>
       <c r="P123">
-        <v>11949.9526797767</v>
+        <v>11949.952679776699</v>
       </c>
       <c r="Q123" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7150,7 +7175,7 @@
         <v>2</v>
       </c>
       <c r="F124">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -7186,7 +7211,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7203,7 +7228,7 @@
         <v>2</v>
       </c>
       <c r="F125">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -7230,16 +7255,16 @@
         <v>13934683</v>
       </c>
       <c r="O125">
-        <v>19.90726194697477</v>
+        <v>19.907261946974771</v>
       </c>
       <c r="P125">
-        <v>1215.339557202367</v>
+        <v>1215.3395572023669</v>
       </c>
       <c r="Q125" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7268,13 +7293,13 @@
         <v>0.47</v>
       </c>
       <c r="J126">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K126">
         <v>3.45</v>
       </c>
       <c r="L126">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M126" t="s">
         <v>42</v>
@@ -7283,7 +7308,7 @@
         <v>21137558</v>
       </c>
       <c r="O126">
-        <v>34.89437453346522</v>
+        <v>34.894374533465218</v>
       </c>
       <c r="P126">
         <v>2235.701029835418</v>
@@ -7292,7 +7317,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7321,13 +7346,13 @@
         <v>0.47</v>
       </c>
       <c r="J127">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K127">
         <v>3.45</v>
       </c>
       <c r="L127">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M127" t="s">
         <v>42</v>
@@ -7336,7 +7361,7 @@
         <v>23558370</v>
       </c>
       <c r="O127">
-        <v>39.93138850284927</v>
+        <v>39.931388502849273</v>
       </c>
       <c r="P127">
         <v>2558.425178618978</v>
@@ -7345,7 +7370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7362,7 +7387,7 @@
         <v>9</v>
       </c>
       <c r="F128">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -7371,13 +7396,13 @@
         <v>30</v>
       </c>
       <c r="I128">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J128">
         <v>1.4</v>
       </c>
       <c r="K128">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L128">
         <v>1.554</v>
@@ -7389,16 +7414,16 @@
         <v>26874064</v>
       </c>
       <c r="O128">
-        <v>46.83039470250578</v>
+        <v>46.830394702505778</v>
       </c>
       <c r="P128">
-        <v>3863.511426468154</v>
+        <v>3863.5114264681538</v>
       </c>
       <c r="Q128" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7415,7 +7440,7 @@
         <v>9</v>
       </c>
       <c r="F129">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -7424,13 +7449,13 @@
         <v>31</v>
       </c>
       <c r="I129">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J129">
         <v>1.4</v>
       </c>
       <c r="K129">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L129">
         <v>1.554</v>
@@ -7442,16 +7467,16 @@
         <v>26495424</v>
       </c>
       <c r="O129">
-        <v>46.04255369322147</v>
+        <v>46.042553693221471</v>
       </c>
       <c r="P129">
-        <v>3798.51447820525</v>
+        <v>3798.5144782052498</v>
       </c>
       <c r="Q129" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7468,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="F130">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -7495,16 +7520,16 @@
         <v>24945106</v>
       </c>
       <c r="O130">
-        <v>44.94098539495224</v>
+        <v>44.940985394952243</v>
       </c>
       <c r="P130">
-        <v>2880.832397112324</v>
+        <v>2880.8323971123241</v>
       </c>
       <c r="Q130" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7521,7 +7546,7 @@
         <v>2</v>
       </c>
       <c r="F131">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -7548,16 +7573,16 @@
         <v>23553810</v>
       </c>
       <c r="O131">
-        <v>42.06719227715194</v>
+        <v>42.067192277151939</v>
       </c>
       <c r="P131">
-        <v>2696.614889561022</v>
+        <v>2696.6148895610222</v>
       </c>
       <c r="Q131" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7592,7 +7617,7 @@
         <v>7.41</v>
       </c>
       <c r="L132">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M132" t="s">
         <v>43</v>
@@ -7601,16 +7626,16 @@
         <v>29966800</v>
       </c>
       <c r="O132">
-        <v>55.31355144624472</v>
+        <v>55.313551446244723</v>
       </c>
       <c r="P132">
-        <v>3544.499902357555</v>
+        <v>3544.4999023575551</v>
       </c>
       <c r="Q132" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7645,7 +7670,7 @@
         <v>7.41</v>
       </c>
       <c r="L133">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M133" t="s">
         <v>43</v>
@@ -7654,7 +7679,7 @@
         <v>30573398</v>
       </c>
       <c r="O133">
-        <v>56.56651067107641</v>
+        <v>56.566510671076408</v>
       </c>
       <c r="P133">
         <v>3624.789699956068</v>
@@ -7663,7 +7688,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7680,7 +7705,7 @@
         <v>9</v>
       </c>
       <c r="F134">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -7692,13 +7717,13 @@
         <v>40</v>
       </c>
       <c r="J134">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K134">
         <v>6.67</v>
       </c>
       <c r="L134">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M134" t="s">
         <v>43</v>
@@ -7707,16 +7732,16 @@
         <v>26649942</v>
       </c>
       <c r="O134">
-        <v>48.46241143497404</v>
+        <v>48.462411434974037</v>
       </c>
       <c r="P134">
-        <v>3212.081720079884</v>
+        <v>3212.0817200798838</v>
       </c>
       <c r="Q134" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7733,7 +7758,7 @@
         <v>9</v>
       </c>
       <c r="F135">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -7745,13 +7770,13 @@
         <v>40</v>
       </c>
       <c r="J135">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K135">
         <v>6.67</v>
       </c>
       <c r="L135">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M135" t="s">
         <v>43</v>
@@ -7760,16 +7785,16 @@
         <v>31924550</v>
       </c>
       <c r="O135">
-        <v>59.35738430163533</v>
+        <v>59.357384301635328</v>
       </c>
       <c r="P135">
-        <v>3934.19896826357</v>
+        <v>3934.1989682635699</v>
       </c>
       <c r="Q135" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7786,7 +7811,7 @@
         <v>2</v>
       </c>
       <c r="F136">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -7813,16 +7838,16 @@
         <v>28559752</v>
       </c>
       <c r="O136">
-        <v>52.4072217659936</v>
+        <v>52.407221765993597</v>
       </c>
       <c r="P136">
-        <v>3199.464088277998</v>
+        <v>3199.4640882779981</v>
       </c>
       <c r="Q136" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7839,7 +7864,7 @@
         <v>2</v>
       </c>
       <c r="F137">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -7866,16 +7891,16 @@
         <v>29407874</v>
       </c>
       <c r="O137">
-        <v>54.15906117806337</v>
+        <v>54.159061178063368</v>
       </c>
       <c r="P137">
-        <v>3306.41399133476</v>
+        <v>3306.4139913347599</v>
       </c>
       <c r="Q137" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7904,13 +7929,13 @@
         <v>0.47</v>
       </c>
       <c r="J138">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K138">
         <v>3.45</v>
       </c>
       <c r="L138">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M138" t="s">
         <v>43</v>
@@ -7919,16 +7944,16 @@
         <v>35802120</v>
       </c>
       <c r="O138">
-        <v>67.36670365552472</v>
+        <v>67.366703655524717</v>
       </c>
       <c r="P138">
-        <v>4316.220329292068</v>
+        <v>4316.2203292920676</v>
       </c>
       <c r="Q138" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7957,13 +7982,13 @@
         <v>0.47</v>
       </c>
       <c r="J139">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K139">
         <v>3.45</v>
       </c>
       <c r="L139">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M139" t="s">
         <v>43</v>
@@ -7972,16 +7997,16 @@
         <v>32298224</v>
       </c>
       <c r="O139">
-        <v>60.12922707952077</v>
+        <v>60.129227079520767</v>
       </c>
       <c r="P139">
-        <v>3852.511377613808</v>
+        <v>3852.5113776138078</v>
       </c>
       <c r="Q139" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7998,7 +8023,7 @@
         <v>9</v>
       </c>
       <c r="F140">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -8007,13 +8032,13 @@
         <v>30</v>
       </c>
       <c r="I140">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J140">
         <v>1.4</v>
       </c>
       <c r="K140">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L140">
         <v>1.554</v>
@@ -8025,7 +8050,7 @@
         <v>41643980</v>
       </c>
       <c r="O140">
-        <v>79.43336456963129</v>
+        <v>79.433364569631294</v>
       </c>
       <c r="P140">
         <v>6553.259130253713</v>
@@ -8034,7 +8059,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8051,7 +8076,7 @@
         <v>9</v>
       </c>
       <c r="F141">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -8060,13 +8085,13 @@
         <v>31</v>
       </c>
       <c r="I141">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J141">
         <v>1.4</v>
       </c>
       <c r="K141">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L141">
         <v>1.554</v>
@@ -8078,7 +8103,7 @@
         <v>47530028</v>
       </c>
       <c r="O141">
-        <v>91.59129806001881</v>
+        <v>91.591298060018815</v>
       </c>
       <c r="P141">
         <v>7556.2896462412</v>
@@ -8087,7 +8112,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8104,7 +8129,7 @@
         <v>2</v>
       </c>
       <c r="F142">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -8128,19 +8153,19 @@
         <v>44</v>
       </c>
       <c r="N142">
-        <v>38653.36</v>
+        <v>38653.360000000001</v>
       </c>
       <c r="O142">
-        <v>0.1258597607550485</v>
+        <v>0.12585976075504851</v>
       </c>
       <c r="P142">
-        <v>8.067933381733878</v>
+        <v>8.0679333817338783</v>
       </c>
       <c r="Q142" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8157,7 +8182,7 @@
         <v>2</v>
       </c>
       <c r="F143">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -8184,16 +8209,16 @@
         <v>96892.59</v>
       </c>
       <c r="O143">
-        <v>0.3720590626152848</v>
+        <v>0.37205906261528482</v>
       </c>
       <c r="P143">
-        <v>23.84993991123621</v>
+        <v>23.849939911236209</v>
       </c>
       <c r="Q143" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8228,7 +8253,7 @@
         <v>7.41</v>
       </c>
       <c r="L144">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M144" t="s">
         <v>44</v>
@@ -8237,16 +8262,16 @@
         <v>16870.12</v>
       </c>
       <c r="O144">
-        <v>0.03377374793767478</v>
+        <v>3.3773747937674778E-2</v>
       </c>
       <c r="P144">
-        <v>2.164226362931614</v>
+        <v>2.1642263629316139</v>
       </c>
       <c r="Q144" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8263,7 +8288,7 @@
         <v>9</v>
       </c>
       <c r="F145">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -8275,13 +8300,13 @@
         <v>40</v>
       </c>
       <c r="J145">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K145">
         <v>6.67</v>
       </c>
       <c r="L145">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M145" t="s">
         <v>44</v>
@@ -8290,7 +8315,7 @@
         <v>13047.26</v>
       </c>
       <c r="O145">
-        <v>0.01761306959234941</v>
+        <v>1.7613069592349411E-2</v>
       </c>
       <c r="P145">
         <v>1.167391741287805</v>
@@ -8299,7 +8324,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8316,7 +8341,7 @@
         <v>9</v>
       </c>
       <c r="F146">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -8328,13 +8353,13 @@
         <v>40</v>
       </c>
       <c r="J146">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K146">
         <v>6.67</v>
       </c>
       <c r="L146">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M146" t="s">
         <v>44</v>
@@ -8343,7 +8368,7 @@
         <v>81089.13</v>
       </c>
       <c r="O146">
-        <v>0.3052518466033943</v>
+        <v>0.30525184660339427</v>
       </c>
       <c r="P146">
         <v>20.23204886968945</v>
@@ -8352,7 +8377,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8369,7 +8394,7 @@
         <v>2</v>
       </c>
       <c r="F147">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -8396,7 +8421,7 @@
         <v>772722</v>
       </c>
       <c r="O147">
-        <v>1.888175684789747</v>
+        <v>1.8881756847897471</v>
       </c>
       <c r="P147">
         <v>115.2732408296549</v>
@@ -8405,7 +8430,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -8422,7 +8447,7 @@
         <v>2</v>
       </c>
       <c r="F148">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -8449,16 +8474,16 @@
         <v>227952.67</v>
       </c>
       <c r="O148">
-        <v>0.7623996668876876</v>
+        <v>0.76239966688768757</v>
       </c>
       <c r="P148">
-        <v>46.54454620803954</v>
+        <v>46.544546208039542</v>
       </c>
       <c r="Q148" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8487,22 +8512,22 @@
         <v>0.47</v>
       </c>
       <c r="J149">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K149">
         <v>3.45</v>
       </c>
       <c r="L149">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M149" t="s">
         <v>44</v>
       </c>
       <c r="N149">
-        <v>792108.9399999999</v>
+        <v>792108.94</v>
       </c>
       <c r="O149">
-        <v>1.926144814354466</v>
+        <v>1.9261448143544659</v>
       </c>
       <c r="P149">
         <v>123.4091168745413</v>
@@ -8511,7 +8536,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8540,31 +8565,31 @@
         <v>0.47</v>
       </c>
       <c r="J150">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K150">
         <v>3.45</v>
       </c>
       <c r="L150">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M150" t="s">
         <v>44</v>
       </c>
       <c r="N150">
-        <v>1063253.62</v>
+        <v>1063253.6200000001</v>
       </c>
       <c r="O150">
-        <v>2.457178978885041</v>
+        <v>2.4571789788850409</v>
       </c>
       <c r="P150">
-        <v>157.4327566271378</v>
+        <v>157.43275662713779</v>
       </c>
       <c r="Q150" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8581,7 +8606,7 @@
         <v>9</v>
       </c>
       <c r="F151">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -8590,13 +8615,13 @@
         <v>30</v>
       </c>
       <c r="I151">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J151">
         <v>1.4</v>
       </c>
       <c r="K151">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L151">
         <v>1.554</v>
@@ -8605,19 +8630,19 @@
         <v>44</v>
       </c>
       <c r="N151">
-        <v>878805.9399999999</v>
+        <v>878805.94</v>
       </c>
       <c r="O151">
-        <v>2.095940028342464</v>
+        <v>2.0959400283424641</v>
       </c>
       <c r="P151">
-        <v>172.9152252534786</v>
+        <v>172.91522525347861</v>
       </c>
       <c r="Q151" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8634,7 +8659,7 @@
         <v>9</v>
       </c>
       <c r="F152">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -8643,13 +8668,13 @@
         <v>31</v>
       </c>
       <c r="I152">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J152">
         <v>1.4</v>
       </c>
       <c r="K152">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L152">
         <v>1.554</v>
@@ -8661,16 +8686,16 @@
         <v>1319278.25</v>
       </c>
       <c r="O152">
-        <v>2.958600675564835</v>
+        <v>2.9586006755648349</v>
       </c>
       <c r="P152">
-        <v>244.0847998188987</v>
+        <v>244.08479981889869</v>
       </c>
       <c r="Q152" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8687,7 +8712,7 @@
         <v>2</v>
       </c>
       <c r="F153">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -8714,16 +8739,16 @@
         <v>23424362</v>
       </c>
       <c r="O153">
-        <v>73.62129765677039</v>
+        <v>73.621297656770395</v>
       </c>
       <c r="P153">
-        <v>4719.313952357078</v>
+        <v>4719.3139523570781</v>
       </c>
       <c r="Q153" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8740,7 +8765,7 @@
         <v>2</v>
       </c>
       <c r="F154">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -8767,16 +8792,16 @@
         <v>25945976</v>
       </c>
       <c r="O154">
-        <v>83.2437656794027</v>
+        <v>83.243765679402699</v>
       </c>
       <c r="P154">
-        <v>5336.138825602739</v>
+        <v>5336.1388256027394</v>
       </c>
       <c r="Q154" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8811,7 +8836,7 @@
         <v>7.41</v>
       </c>
       <c r="L155">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M155" t="s">
         <v>45</v>
@@ -8820,7 +8845,7 @@
         <v>25732086</v>
       </c>
       <c r="O155">
-        <v>82.42756237256793</v>
+        <v>82.427562372567934</v>
       </c>
       <c r="P155">
         <v>5281.969411511609</v>
@@ -8829,7 +8854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8864,7 +8889,7 @@
         <v>7.41</v>
       </c>
       <c r="L156">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M156" t="s">
         <v>45</v>
@@ -8873,16 +8898,16 @@
         <v>24774712</v>
       </c>
       <c r="O156">
-        <v>78.77422736542586</v>
+        <v>78.774227365425858</v>
       </c>
       <c r="P156">
-        <v>5047.863207199651</v>
+        <v>5047.8632071996508</v>
       </c>
       <c r="Q156" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8899,7 +8924,7 @@
         <v>9</v>
       </c>
       <c r="F157">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -8911,13 +8936,13 @@
         <v>40</v>
       </c>
       <c r="J157">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K157">
         <v>6.67</v>
       </c>
       <c r="L157">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M157" t="s">
         <v>45</v>
@@ -8926,16 +8951,16 @@
         <v>27703890</v>
       </c>
       <c r="O157">
-        <v>89.95195783392661</v>
+        <v>89.951957833926613</v>
       </c>
       <c r="P157">
-        <v>5962.002939771934</v>
+        <v>5962.0029397719336</v>
       </c>
       <c r="Q157" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -8952,7 +8977,7 @@
         <v>9</v>
       </c>
       <c r="F158">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -8964,13 +8989,13 @@
         <v>40</v>
       </c>
       <c r="J158">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K158">
         <v>6.67</v>
       </c>
       <c r="L158">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M158" t="s">
         <v>45</v>
@@ -8979,16 +9004,16 @@
         <v>26126074</v>
       </c>
       <c r="O158">
-        <v>83.93101886166613</v>
+        <v>83.931018861666132</v>
       </c>
       <c r="P158">
-        <v>5562.935963163389</v>
+        <v>5562.9359631633888</v>
       </c>
       <c r="Q158" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -9005,7 +9030,7 @@
         <v>2</v>
       </c>
       <c r="F159">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -9032,16 +9057,16 @@
         <v>24294482</v>
       </c>
       <c r="O159">
-        <v>76.94167178058665</v>
+        <v>76.941671780586645</v>
       </c>
       <c r="P159">
-        <v>4697.293759498575</v>
+        <v>4697.2937594985751</v>
       </c>
       <c r="Q159" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -9058,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="F160">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -9085,16 +9110,16 @@
         <v>25220512</v>
       </c>
       <c r="O160">
-        <v>80.47539822047722</v>
+        <v>80.475398220477217</v>
       </c>
       <c r="P160">
-        <v>4913.027974388109</v>
+        <v>4913.0279743881092</v>
       </c>
       <c r="Q160" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -9123,13 +9148,13 @@
         <v>0.47</v>
       </c>
       <c r="J161">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K161">
         <v>3.45</v>
       </c>
       <c r="L161">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M161" t="s">
         <v>45</v>
@@ -9138,16 +9163,16 @@
         <v>22415642</v>
       </c>
       <c r="O161">
-        <v>69.77202653764206</v>
+        <v>69.772026537642063</v>
       </c>
       <c r="P161">
-        <v>4470.330638375818</v>
+        <v>4470.3306383758181</v>
       </c>
       <c r="Q161" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -9176,13 +9201,13 @@
         <v>0.47</v>
       </c>
       <c r="J162">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K162">
         <v>3.45</v>
       </c>
       <c r="L162">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M162" t="s">
         <v>45</v>
@@ -9191,16 +9216,16 @@
         <v>22157808</v>
       </c>
       <c r="O162">
-        <v>68.78813311852741</v>
+        <v>68.788133118527412</v>
       </c>
       <c r="P162">
-        <v>4407.29206669277</v>
+        <v>4407.2920666927703</v>
       </c>
       <c r="Q162" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -9217,7 +9242,7 @@
         <v>9</v>
       </c>
       <c r="F163">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -9226,13 +9251,13 @@
         <v>30</v>
       </c>
       <c r="I163">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J163">
         <v>1.4</v>
       </c>
       <c r="K163">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L163">
         <v>1.554</v>
@@ -9247,13 +9272,13 @@
         <v>50.4050473199094</v>
       </c>
       <c r="P163">
-        <v>4158.420562313088</v>
+        <v>4158.4205623130883</v>
       </c>
       <c r="Q163" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -9270,7 +9295,7 @@
         <v>9</v>
       </c>
       <c r="F164">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -9279,13 +9304,13 @@
         <v>31</v>
       </c>
       <c r="I164">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J164">
         <v>1.4</v>
       </c>
       <c r="K164">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L164">
         <v>1.554</v>
@@ -9300,13 +9325,13 @@
         <v>49.61232001823452</v>
       </c>
       <c r="P164">
-        <v>4093.020494524843</v>
+        <v>4093.0204945248429</v>
       </c>
       <c r="Q164" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -9323,7 +9348,7 @@
         <v>2</v>
       </c>
       <c r="F165">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -9350,16 +9375,16 @@
         <v>12965.7</v>
       </c>
       <c r="O165">
-        <v>0.1090703307546022</v>
+        <v>0.10907033075460219</v>
       </c>
       <c r="P165">
-        <v>6.991687868884756</v>
+        <v>6.9916878688847559</v>
       </c>
       <c r="Q165" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -9376,7 +9401,7 @@
         <v>2</v>
       </c>
       <c r="F166">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -9403,7 +9428,7 @@
         <v>89730.2</v>
       </c>
       <c r="O166">
-        <v>0.9374427979720918</v>
+        <v>0.93744279797209185</v>
       </c>
       <c r="P166">
         <v>60.09248704949308</v>
@@ -9412,7 +9437,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -9447,25 +9472,25 @@
         <v>7.41</v>
       </c>
       <c r="L167">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M167" t="s">
         <v>46</v>
       </c>
       <c r="N167">
-        <v>150765.77</v>
+        <v>150765.76999999999</v>
       </c>
       <c r="O167">
         <v>1.423230490802206</v>
       </c>
       <c r="P167">
-        <v>91.20080348815131</v>
+        <v>91.200803488151308</v>
       </c>
       <c r="Q167" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -9500,7 +9525,7 @@
         <v>7.41</v>
       </c>
       <c r="L168">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M168" t="s">
         <v>46</v>
@@ -9509,16 +9534,16 @@
         <v>168009.98</v>
       </c>
       <c r="O168">
-        <v>1.554764577269759</v>
+        <v>1.5547645772697589</v>
       </c>
       <c r="P168">
-        <v>99.62952564485501</v>
+        <v>99.629525644855008</v>
       </c>
       <c r="Q168" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -9535,7 +9560,7 @@
         <v>9</v>
       </c>
       <c r="F169">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -9547,13 +9572,13 @@
         <v>40</v>
       </c>
       <c r="J169">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K169">
         <v>6.67</v>
       </c>
       <c r="L169">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M169" t="s">
         <v>46</v>
@@ -9562,7 +9587,7 @@
         <v>283028.19</v>
       </c>
       <c r="O169">
-        <v>2.432091818093384</v>
+        <v>2.4320918180933839</v>
       </c>
       <c r="P169">
         <v>161.1986989325884</v>
@@ -9571,7 +9596,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -9588,7 +9613,7 @@
         <v>9</v>
       </c>
       <c r="F170">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -9600,13 +9625,13 @@
         <v>40</v>
       </c>
       <c r="J170">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K170">
         <v>6.67</v>
       </c>
       <c r="L170">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M170" t="s">
         <v>46</v>
@@ -9615,16 +9640,16 @@
         <v>376959.41</v>
       </c>
       <c r="O170">
-        <v>3.148573304544937</v>
+        <v>3.1485733045449371</v>
       </c>
       <c r="P170">
-        <v>208.6869896977863</v>
+        <v>208.68698969778629</v>
       </c>
       <c r="Q170" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -9641,7 +9666,7 @@
         <v>2</v>
       </c>
       <c r="F171">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -9671,13 +9696,13 @@
         <v>1.507365133240834</v>
       </c>
       <c r="P171">
-        <v>92.02473340908634</v>
+        <v>92.024733409086338</v>
       </c>
       <c r="Q171" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -9694,7 +9719,7 @@
         <v>2</v>
       </c>
       <c r="F172">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -9724,13 +9749,13 @@
         <v>2.105695147370958</v>
       </c>
       <c r="P172">
-        <v>128.5528172998143</v>
+        <v>128.55281729981431</v>
       </c>
       <c r="Q172" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -9759,22 +9784,22 @@
         <v>0.47</v>
       </c>
       <c r="J173">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K173">
         <v>3.45</v>
       </c>
       <c r="L173">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M173" t="s">
         <v>46</v>
       </c>
       <c r="N173">
-        <v>743206.5600000001</v>
+        <v>743206.56</v>
       </c>
       <c r="O173">
-        <v>5.988627949289067</v>
+        <v>5.9886279492890671</v>
       </c>
       <c r="P173">
         <v>383.6945597258466</v>
@@ -9783,7 +9808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -9812,31 +9837,31 @@
         <v>0.47</v>
       </c>
       <c r="J174">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K174">
         <v>3.45</v>
       </c>
       <c r="L174">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M174" t="s">
         <v>46</v>
       </c>
       <c r="N174">
-        <v>604650.0600000001</v>
+        <v>604650.06000000006</v>
       </c>
       <c r="O174">
-        <v>4.885334898433746</v>
+        <v>4.8853348984337464</v>
       </c>
       <c r="P174">
-        <v>313.0059904940958</v>
+        <v>313.00599049409578</v>
       </c>
       <c r="Q174" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -9853,7 +9878,7 @@
         <v>9</v>
       </c>
       <c r="F175">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -9862,13 +9887,13 @@
         <v>30</v>
       </c>
       <c r="I175">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J175">
         <v>1.4</v>
       </c>
       <c r="K175">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L175">
         <v>1.554</v>
@@ -9883,13 +9908,13 @@
         <v>14.6250566045351</v>
       </c>
       <c r="P175">
-        <v>1206.568376442522</v>
+        <v>1206.5683764425221</v>
       </c>
       <c r="Q175" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -9906,7 +9931,7 @@
         <v>9</v>
       </c>
       <c r="F176">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -9915,13 +9940,13 @@
         <v>31</v>
       </c>
       <c r="I176">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J176">
         <v>1.4</v>
       </c>
       <c r="K176">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L176">
         <v>1.554</v>
@@ -9942,7 +9967,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -9959,7 +9984,7 @@
         <v>2</v>
       </c>
       <c r="F177">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -9989,13 +10014,13 @@
         <v>0.6813621439835742</v>
       </c>
       <c r="P177">
-        <v>43.67706051176759</v>
+        <v>43.677060511767593</v>
       </c>
       <c r="Q177" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -10012,7 +10037,7 @@
         <v>2</v>
       </c>
       <c r="F178">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -10039,16 +10064,16 @@
         <v>38832124</v>
       </c>
       <c r="O178">
-        <v>1.399479270060508</v>
+        <v>1.3994792700605081</v>
       </c>
       <c r="P178">
-        <v>89.71020961926334</v>
+        <v>89.710209619263338</v>
       </c>
       <c r="Q178" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -10083,7 +10108,7 @@
         <v>7.41</v>
       </c>
       <c r="L179">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M179" t="s">
         <v>47</v>
@@ -10092,16 +10117,16 @@
         <v>42724028</v>
       </c>
       <c r="O179">
-        <v>1.549826436029217</v>
+        <v>1.5498264360292171</v>
       </c>
       <c r="P179">
-        <v>99.31308888230257</v>
+        <v>99.313088882302566</v>
       </c>
       <c r="Q179" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -10136,7 +10161,7 @@
         <v>7.41</v>
       </c>
       <c r="L180">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M180" t="s">
         <v>47</v>
@@ -10154,7 +10179,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -10171,7 +10196,7 @@
         <v>9</v>
       </c>
       <c r="F181">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -10183,13 +10208,13 @@
         <v>40</v>
       </c>
       <c r="J181">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K181">
         <v>6.67</v>
       </c>
       <c r="L181">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M181" t="s">
         <v>47</v>
@@ -10198,7 +10223,7 @@
         <v>50879396</v>
       </c>
       <c r="O181">
-        <v>1.864874409008998</v>
+        <v>1.8648744090089979</v>
       </c>
       <c r="P181">
         <v>123.6036099330307</v>
@@ -10207,7 +10232,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -10224,7 +10249,7 @@
         <v>9</v>
       </c>
       <c r="F182">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -10236,13 +10261,13 @@
         <v>40</v>
       </c>
       <c r="J182">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K182">
         <v>6.67</v>
       </c>
       <c r="L182">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M182" t="s">
         <v>47</v>
@@ -10251,16 +10276,16 @@
         <v>48706560</v>
       </c>
       <c r="O182">
-        <v>1.78093612720277</v>
+        <v>1.7809361272027699</v>
       </c>
       <c r="P182">
-        <v>118.0401925829373</v>
+        <v>118.04019258293729</v>
       </c>
       <c r="Q182" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -10277,7 +10302,7 @@
         <v>2</v>
       </c>
       <c r="F183">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -10304,16 +10329,16 @@
         <v>44341856</v>
       </c>
       <c r="O183">
-        <v>1.612324343178218</v>
+        <v>1.6123243431782179</v>
       </c>
       <c r="P183">
-        <v>98.4324995835298</v>
+        <v>98.432499583529804</v>
       </c>
       <c r="Q183" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -10330,7 +10355,7 @@
         <v>2</v>
       </c>
       <c r="F184">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -10366,7 +10391,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -10395,13 +10420,13 @@
         <v>0.47</v>
       </c>
       <c r="J185">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K185">
         <v>3.45</v>
       </c>
       <c r="L185">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M185" t="s">
         <v>47</v>
@@ -10410,16 +10435,16 @@
         <v>73806368</v>
       </c>
       <c r="O185">
-        <v>2.750560506210766</v>
+        <v>2.7505605062107659</v>
       </c>
       <c r="P185">
-        <v>176.2298662342397</v>
+        <v>176.22986623423969</v>
       </c>
       <c r="Q185" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -10448,13 +10473,13 @@
         <v>0.47</v>
       </c>
       <c r="J186">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K186">
         <v>3.45</v>
       </c>
       <c r="L186">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M186" t="s">
         <v>47</v>
@@ -10463,16 +10488,16 @@
         <v>80663648</v>
       </c>
       <c r="O186">
-        <v>3.015462367678549</v>
+        <v>3.0154623676785488</v>
       </c>
       <c r="P186">
-        <v>193.2022685886896</v>
+        <v>193.20226858868961</v>
       </c>
       <c r="Q186" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -10489,7 +10514,7 @@
         <v>9</v>
       </c>
       <c r="F187">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -10498,13 +10523,13 @@
         <v>30</v>
       </c>
       <c r="I187">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J187">
         <v>1.4</v>
       </c>
       <c r="K187">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L187">
         <v>1.554</v>
@@ -10516,16 +10541,16 @@
         <v>236941232</v>
       </c>
       <c r="O187">
-        <v>24.62621809190157</v>
+        <v>24.626218091901571</v>
       </c>
       <c r="P187">
-        <v>2031.665024246904</v>
+        <v>2031.6650242469041</v>
       </c>
       <c r="Q187" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -10542,7 +10567,7 @@
         <v>9</v>
       </c>
       <c r="F188">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -10551,13 +10576,13 @@
         <v>31</v>
       </c>
       <c r="I188">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J188">
         <v>1.4</v>
       </c>
       <c r="K188">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L188">
         <v>1.554</v>
@@ -10569,16 +10594,16 @@
         <v>238929552</v>
       </c>
       <c r="O188">
-        <v>25.34708674820378</v>
+        <v>25.347086748203779</v>
       </c>
       <c r="P188">
-        <v>2091.13674786356</v>
+        <v>2091.1367478635598</v>
       </c>
       <c r="Q188" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -10595,7 +10620,7 @@
         <v>2</v>
       </c>
       <c r="F189">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -10622,16 +10647,16 @@
         <v>2345763.5</v>
       </c>
       <c r="O189">
-        <v>6.254929171570163</v>
+        <v>6.2549291715701631</v>
       </c>
       <c r="P189">
-        <v>400.9569981775746</v>
+        <v>400.95699817757458</v>
       </c>
       <c r="Q189" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -10648,7 +10673,7 @@
         <v>2</v>
       </c>
       <c r="F190">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -10675,16 +10700,16 @@
         <v>2142917.75</v>
       </c>
       <c r="O190">
-        <v>5.608547528747319</v>
+        <v>5.6085475287473194</v>
       </c>
       <c r="P190">
-        <v>359.5222774838026</v>
+        <v>359.52227748380261</v>
       </c>
       <c r="Q190" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -10719,25 +10744,25 @@
         <v>7.41</v>
       </c>
       <c r="L191">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M191" t="s">
         <v>48</v>
       </c>
       <c r="N191">
-        <v>972242.3100000001</v>
+        <v>972242.31</v>
       </c>
       <c r="O191">
-        <v>2.501569141709451</v>
+        <v>2.5015691417094512</v>
       </c>
       <c r="P191">
-        <v>160.3008909515933</v>
+        <v>160.30089095159329</v>
       </c>
       <c r="Q191" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -10772,7 +10797,7 @@
         <v>7.41</v>
       </c>
       <c r="L192">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M192" t="s">
         <v>48</v>
@@ -10781,16 +10806,16 @@
         <v>950829.75</v>
       </c>
       <c r="O192">
-        <v>2.446962982917545</v>
+        <v>2.4469629829175452</v>
       </c>
       <c r="P192">
-        <v>156.80172086677</v>
+        <v>156.80172086677001</v>
       </c>
       <c r="Q192" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -10807,7 +10832,7 @@
         <v>9</v>
       </c>
       <c r="F193">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -10819,13 +10844,13 @@
         <v>40</v>
       </c>
       <c r="J193">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K193">
         <v>6.67</v>
       </c>
       <c r="L193">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M193" t="s">
         <v>48</v>
@@ -10834,7 +10859,7 @@
         <v>650377</v>
       </c>
       <c r="O193">
-        <v>1.680750508745145</v>
+        <v>1.6807505087451451</v>
       </c>
       <c r="P193">
         <v>111.3999040761546</v>
@@ -10843,7 +10868,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -10860,7 +10885,7 @@
         <v>9</v>
       </c>
       <c r="F194">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -10872,13 +10897,13 @@
         <v>40</v>
       </c>
       <c r="J194">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K194">
         <v>6.67</v>
       </c>
       <c r="L194">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M194" t="s">
         <v>48</v>
@@ -10890,13 +10915,13 @@
         <v>2.136093829099734</v>
       </c>
       <c r="P194">
-        <v>141.5799944258465</v>
+        <v>141.57999442584651</v>
       </c>
       <c r="Q194" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -10913,7 +10938,7 @@
         <v>2</v>
       </c>
       <c r="F195">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -10940,16 +10965,16 @@
         <v>2133210.75</v>
       </c>
       <c r="O195">
-        <v>5.577615519538935</v>
+        <v>5.5776155195389352</v>
       </c>
       <c r="P195">
-        <v>340.51376798162</v>
+        <v>340.51376798161999</v>
       </c>
       <c r="Q195" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -10966,7 +10991,7 @@
         <v>2</v>
       </c>
       <c r="F196">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -10993,16 +11018,16 @@
         <v>2074488.62</v>
       </c>
       <c r="O196">
-        <v>5.390493497709755</v>
+        <v>5.3904934977097554</v>
       </c>
       <c r="P196">
-        <v>329.0899571251377</v>
+        <v>329.08995712513769</v>
       </c>
       <c r="Q196" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -11031,13 +11056,13 @@
         <v>0.47</v>
       </c>
       <c r="J197">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K197">
         <v>3.45</v>
       </c>
       <c r="L197">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M197" t="s">
         <v>48</v>
@@ -11046,16 +11071,16 @@
         <v>1645153.62</v>
       </c>
       <c r="O197">
-        <v>4.217622796514378</v>
+        <v>4.2176227965143784</v>
       </c>
       <c r="P197">
-        <v>270.2253230124924</v>
+        <v>270.22532301249242</v>
       </c>
       <c r="Q197" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -11084,13 +11109,13 @@
         <v>0.47</v>
       </c>
       <c r="J198">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K198">
         <v>3.45</v>
       </c>
       <c r="L198">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M198" t="s">
         <v>48</v>
@@ -11099,16 +11124,16 @@
         <v>1697142.38</v>
       </c>
       <c r="O198">
-        <v>4.35020416389662</v>
+        <v>4.3502041638966196</v>
       </c>
       <c r="P198">
-        <v>278.719881334757</v>
+        <v>278.71988133475702</v>
       </c>
       <c r="Q198" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -11125,7 +11150,7 @@
         <v>9</v>
       </c>
       <c r="F199">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -11134,13 +11159,13 @@
         <v>30</v>
       </c>
       <c r="I199">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J199">
         <v>1.4</v>
       </c>
       <c r="K199">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L199">
         <v>1.554</v>
@@ -11152,16 +11177,16 @@
         <v>1100913.25</v>
       </c>
       <c r="O199">
-        <v>2.829704861191095</v>
+        <v>2.8297048611910949</v>
       </c>
       <c r="P199">
-        <v>233.4508844991499</v>
+        <v>233.45088449914991</v>
       </c>
       <c r="Q199" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -11178,7 +11203,7 @@
         <v>9</v>
       </c>
       <c r="F200">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -11187,13 +11212,13 @@
         <v>31</v>
       </c>
       <c r="I200">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J200">
         <v>1.4</v>
       </c>
       <c r="K200">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L200">
         <v>1.554</v>
@@ -11205,16 +11230,16 @@
         <v>1245035.5</v>
       </c>
       <c r="O200">
-        <v>3.197244401953471</v>
+        <v>3.1972444019534709</v>
       </c>
       <c r="P200">
-        <v>263.7729269340883</v>
+        <v>263.77292693408828</v>
       </c>
       <c r="Q200" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -11231,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="F201">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -11258,16 +11283,16 @@
         <v>55651.24</v>
       </c>
       <c r="O201">
-        <v>0.05239568938856033</v>
+        <v>5.2395689388560332E-2</v>
       </c>
       <c r="P201">
-        <v>3.358698037728227</v>
+        <v>3.3586980377282272</v>
       </c>
       <c r="Q201" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -11302,7 +11327,7 @@
         <v>7.41</v>
       </c>
       <c r="L202">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M202" t="s">
         <v>49</v>
@@ -11311,16 +11336,16 @@
         <v>41794.31</v>
       </c>
       <c r="O202">
-        <v>0.03684741583921433</v>
+        <v>3.6847415839214331E-2</v>
       </c>
       <c r="P202">
-        <v>2.361187420249985</v>
+        <v>2.3611874202499852</v>
       </c>
       <c r="Q202" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -11355,7 +11380,7 @@
         <v>7.41</v>
       </c>
       <c r="L203">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M203" t="s">
         <v>49</v>
@@ -11364,16 +11389,16 @@
         <v>39509.15</v>
       </c>
       <c r="O203">
-        <v>0.03428333470551274</v>
+        <v>3.4283334705512737E-2</v>
       </c>
       <c r="P203">
-        <v>2.196880752346471</v>
+        <v>2.1968807523464711</v>
       </c>
       <c r="Q203" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -11390,7 +11415,7 @@
         <v>9</v>
       </c>
       <c r="F204">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G204">
         <v>1</v>
@@ -11402,31 +11427,31 @@
         <v>40</v>
       </c>
       <c r="J204">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K204">
         <v>6.67</v>
       </c>
       <c r="L204">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M204" t="s">
         <v>49</v>
       </c>
       <c r="N204">
-        <v>77289.99000000001</v>
+        <v>77289.990000000005</v>
       </c>
       <c r="O204">
-        <v>0.07667561317152748</v>
+        <v>7.6675613171527476E-2</v>
       </c>
       <c r="P204">
-        <v>5.082048708505661</v>
+        <v>5.0820487085056607</v>
       </c>
       <c r="Q204" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -11443,7 +11468,7 @@
         <v>9</v>
       </c>
       <c r="F205">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -11455,13 +11480,13 @@
         <v>40</v>
       </c>
       <c r="J205">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K205">
         <v>6.67</v>
       </c>
       <c r="L205">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M205" t="s">
         <v>49</v>
@@ -11470,16 +11495,16 @@
         <v>79268.91</v>
       </c>
       <c r="O205">
-        <v>0.07889607538734814</v>
+        <v>7.8896075387348136E-2</v>
       </c>
       <c r="P205">
-        <v>5.229220627574022</v>
+        <v>5.2292206275740218</v>
       </c>
       <c r="Q205" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -11496,7 +11521,7 @@
         <v>2</v>
       </c>
       <c r="F206">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -11520,19 +11545,19 @@
         <v>50</v>
       </c>
       <c r="N206">
-        <v>719880.3100000001</v>
+        <v>719880.31</v>
       </c>
       <c r="O206">
-        <v>0.80765054561234</v>
+        <v>0.80765054561233995</v>
       </c>
       <c r="P206">
-        <v>51.77247087258591</v>
+        <v>51.772470872585913</v>
       </c>
       <c r="Q206" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -11549,7 +11574,7 @@
         <v>2</v>
       </c>
       <c r="F207">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -11573,19 +11598,19 @@
         <v>50</v>
       </c>
       <c r="N207">
-        <v>1290142.88</v>
+        <v>1290142.8799999999</v>
       </c>
       <c r="O207">
-        <v>1.375291010350081</v>
+        <v>1.3752910103500811</v>
       </c>
       <c r="P207">
-        <v>88.15968015064622</v>
+        <v>88.159680150646224</v>
       </c>
       <c r="Q207" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -11620,7 +11645,7 @@
         <v>7.41</v>
       </c>
       <c r="L208">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M208" t="s">
         <v>50</v>
@@ -11629,16 +11654,16 @@
         <v>3482159.25</v>
       </c>
       <c r="O208">
-        <v>3.408401107360517</v>
+        <v>3.4084011073605169</v>
       </c>
       <c r="P208">
-        <v>218.4108066894867</v>
+        <v>218.41080668948669</v>
       </c>
       <c r="Q208" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -11673,7 +11698,7 @@
         <v>7.41</v>
       </c>
       <c r="L209">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M209" t="s">
         <v>50</v>
@@ -11682,16 +11707,16 @@
         <v>4255836.5</v>
       </c>
       <c r="O209">
-        <v>4.125992020608244</v>
+        <v>4.1259920206082441</v>
       </c>
       <c r="P209">
-        <v>264.3941300421932</v>
+        <v>264.39413004219318</v>
       </c>
       <c r="Q209" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -11708,7 +11733,7 @@
         <v>9</v>
       </c>
       <c r="F210">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -11720,13 +11745,13 @@
         <v>40</v>
       </c>
       <c r="J210">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K210">
         <v>6.67</v>
       </c>
       <c r="L210">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M210" t="s">
         <v>50</v>
@@ -11738,13 +11763,13 @@
         <v>2.792979010444947</v>
       </c>
       <c r="P210">
-        <v>185.1182505859105</v>
+        <v>185.11825058591049</v>
       </c>
       <c r="Q210" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -11761,7 +11786,7 @@
         <v>9</v>
       </c>
       <c r="F211">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -11773,13 +11798,13 @@
         <v>40</v>
       </c>
       <c r="J211">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K211">
         <v>6.67</v>
       </c>
       <c r="L211">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M211" t="s">
         <v>50</v>
@@ -11788,7 +11813,7 @@
         <v>3341242.25</v>
       </c>
       <c r="O211">
-        <v>3.277699631102646</v>
+        <v>3.2776996311026458</v>
       </c>
       <c r="P211">
         <v>217.2454642110408</v>
@@ -11797,7 +11822,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -11814,7 +11839,7 @@
         <v>2</v>
       </c>
       <c r="F212">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -11841,16 +11866,16 @@
         <v>1513621</v>
       </c>
       <c r="O212">
-        <v>1.582568487129559</v>
+        <v>1.5825684871295591</v>
       </c>
       <c r="P212">
-        <v>96.61590275516234</v>
+        <v>96.615902755162338</v>
       </c>
       <c r="Q212" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -11867,7 +11892,7 @@
         <v>2</v>
       </c>
       <c r="F213">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -11894,7 +11919,7 @@
         <v>1773667.88</v>
       </c>
       <c r="O213">
-        <v>1.823763737612137</v>
+        <v>1.8237637376121369</v>
       </c>
       <c r="P213">
         <v>111.3408875221085</v>
@@ -11903,7 +11928,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -11932,13 +11957,13 @@
         <v>0.47</v>
       </c>
       <c r="J214">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K214">
         <v>3.45</v>
       </c>
       <c r="L214">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M214" t="s">
         <v>50</v>
@@ -11950,13 +11975,13 @@
         <v>1.363829688200799</v>
       </c>
       <c r="P214">
-        <v>87.38128936818762</v>
+        <v>87.381289368187623</v>
       </c>
       <c r="Q214" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -11985,13 +12010,13 @@
         <v>0.47</v>
       </c>
       <c r="J215">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K215">
         <v>3.45</v>
       </c>
       <c r="L215">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M215" t="s">
         <v>50</v>
@@ -12003,13 +12028,13 @@
         <v>1.443090941495019</v>
       </c>
       <c r="P215">
-        <v>92.45959978312251</v>
+        <v>92.459599783122513</v>
       </c>
       <c r="Q215" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -12026,7 +12051,7 @@
         <v>9</v>
       </c>
       <c r="F216">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -12035,13 +12060,13 @@
         <v>30</v>
       </c>
       <c r="I216">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J216">
         <v>1.4</v>
       </c>
       <c r="K216">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L216">
         <v>1.554</v>
@@ -12053,16 +12078,16 @@
         <v>1040753.81</v>
       </c>
       <c r="O216">
-        <v>1.143980951155111</v>
+        <v>1.1439809511551109</v>
       </c>
       <c r="P216">
-        <v>94.37852284881956</v>
+        <v>94.378522848819557</v>
       </c>
       <c r="Q216" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -12079,7 +12104,7 @@
         <v>9</v>
       </c>
       <c r="F217">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G217">
         <v>2</v>
@@ -12088,13 +12113,13 @@
         <v>31</v>
       </c>
       <c r="I217">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J217">
         <v>1.4</v>
       </c>
       <c r="K217">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L217">
         <v>1.554</v>
@@ -12103,19 +12128,19 @@
         <v>50</v>
       </c>
       <c r="N217">
-        <v>1110813.62</v>
+        <v>1110813.6200000001</v>
       </c>
       <c r="O217">
         <v>1.208961901596477</v>
       </c>
       <c r="P217">
-        <v>99.73945662116601</v>
+        <v>99.739456621166013</v>
       </c>
       <c r="Q217" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -12132,7 +12157,7 @@
         <v>2</v>
       </c>
       <c r="F218">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -12159,7 +12184,7 @@
         <v>10732.57</v>
       </c>
       <c r="O218">
-        <v>0.01086217739072699</v>
+        <v>1.086217739072699E-2</v>
       </c>
       <c r="P218">
         <v>0.6962934224824997</v>
@@ -12168,7 +12193,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -12185,7 +12210,7 @@
         <v>2</v>
       </c>
       <c r="F219">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -12212,16 +12237,16 @@
         <v>13236.6</v>
       </c>
       <c r="O219">
-        <v>0.01378558731698187</v>
+        <v>1.378558731698187E-2</v>
       </c>
       <c r="P219">
-        <v>0.8836914946783254</v>
+        <v>0.88369149467832542</v>
       </c>
       <c r="Q219" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -12256,7 +12281,7 @@
         <v>7.41</v>
       </c>
       <c r="L220">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M220" t="s">
         <v>51</v>
@@ -12265,16 +12290,16 @@
         <v>50524.2</v>
       </c>
       <c r="O220">
-        <v>0.05731818874996018</v>
+        <v>5.7318188749960183E-2</v>
       </c>
       <c r="P220">
-        <v>3.672957333520459</v>
+        <v>3.6729573335204591</v>
       </c>
       <c r="Q220" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -12309,7 +12334,7 @@
         <v>7.41</v>
       </c>
       <c r="L221">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M221" t="s">
         <v>51</v>
@@ -12318,16 +12343,16 @@
         <v>36349.83</v>
       </c>
       <c r="O221">
-        <v>0.04076986706195761</v>
+        <v>4.0769867061957607E-2</v>
       </c>
       <c r="P221">
-        <v>2.612538628272259</v>
+        <v>2.6125386282722589</v>
       </c>
       <c r="Q221" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -12344,7 +12369,7 @@
         <v>9</v>
       </c>
       <c r="F222">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -12356,13 +12381,13 @@
         <v>40</v>
       </c>
       <c r="J222">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K222">
         <v>6.67</v>
       </c>
       <c r="L222">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M222" t="s">
         <v>51</v>
@@ -12374,13 +12399,13 @@
         <v>0.1079219834223331</v>
       </c>
       <c r="P222">
-        <v>7.153053673583175</v>
+        <v>7.1530536735831749</v>
       </c>
       <c r="Q222" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -12397,7 +12422,7 @@
         <v>9</v>
       </c>
       <c r="F223">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -12409,13 +12434,13 @@
         <v>40</v>
       </c>
       <c r="J223">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K223">
         <v>6.67</v>
       </c>
       <c r="L223">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M223" t="s">
         <v>51</v>
@@ -12427,13 +12452,13 @@
         <v>0.1263740712913905</v>
       </c>
       <c r="P223">
-        <v>8.37605542662293</v>
+        <v>8.3760554266229299</v>
       </c>
       <c r="Q223" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -12450,7 +12475,7 @@
         <v>2</v>
       </c>
       <c r="F224">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G224">
         <v>2</v>
@@ -12477,16 +12502,16 @@
         <v>14191.11</v>
       </c>
       <c r="O224">
-        <v>0.01489996055081275</v>
+        <v>1.489996055081275E-2</v>
       </c>
       <c r="P224">
-        <v>0.9096435012706195</v>
+        <v>0.90964350127061955</v>
       </c>
       <c r="Q224" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -12503,7 +12528,7 @@
         <v>9</v>
       </c>
       <c r="F225">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -12512,13 +12537,13 @@
         <v>30</v>
       </c>
       <c r="I225">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J225">
         <v>1.4</v>
       </c>
       <c r="K225">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L225">
         <v>1.554</v>
@@ -12530,16 +12555,16 @@
         <v>9283.85</v>
       </c>
       <c r="O225">
-        <v>0.009170822882848137</v>
+        <v>9.170822882848137E-3</v>
       </c>
       <c r="P225">
-        <v>0.756593644428616</v>
+        <v>0.75659364442861599</v>
       </c>
       <c r="Q225" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -12556,7 +12581,7 @@
         <v>9</v>
       </c>
       <c r="F226">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G226">
         <v>2</v>
@@ -12565,13 +12590,13 @@
         <v>31</v>
       </c>
       <c r="I226">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J226">
         <v>1.4</v>
       </c>
       <c r="K226">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L226">
         <v>1.554</v>
@@ -12583,16 +12608,16 @@
         <v>10612.46</v>
       </c>
       <c r="O226">
-        <v>0.01072195112896399</v>
+        <v>1.0721951128963989E-2</v>
       </c>
       <c r="P226">
-        <v>0.8845618527013818</v>
+        <v>0.88456185270138177</v>
       </c>
       <c r="Q226" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -12609,7 +12634,7 @@
         <v>2</v>
       </c>
       <c r="F227">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -12636,16 +12661,16 @@
         <v>1844384.62</v>
       </c>
       <c r="O227">
-        <v>0.3895960785724695</v>
+        <v>0.38959607857246947</v>
       </c>
       <c r="P227">
-        <v>24.97410760079933</v>
+        <v>24.974107600799329</v>
       </c>
       <c r="Q227" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -12662,7 +12687,7 @@
         <v>2</v>
       </c>
       <c r="F228">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -12689,16 +12714,16 @@
         <v>2355612.25</v>
       </c>
       <c r="O228">
-        <v>0.5052568602156898</v>
+        <v>0.50525686021568983</v>
       </c>
       <c r="P228">
-        <v>32.38826027023654</v>
+        <v>32.388260270236543</v>
       </c>
       <c r="Q228" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -12733,7 +12758,7 @@
         <v>7.41</v>
       </c>
       <c r="L229">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M229" t="s">
         <v>52</v>
@@ -12742,16 +12767,16 @@
         <v>426799</v>
       </c>
       <c r="O229">
-        <v>0.0712836693107759</v>
+        <v>7.1283669310775899E-2</v>
       </c>
       <c r="P229">
-        <v>4.567867227930218</v>
+        <v>4.5678672279302184</v>
       </c>
       <c r="Q229" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -12786,7 +12811,7 @@
         <v>7.41</v>
       </c>
       <c r="L230">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M230" t="s">
         <v>52</v>
@@ -12795,16 +12820,16 @@
         <v>488809.88</v>
       </c>
       <c r="O230">
-        <v>0.08520793062857748</v>
+        <v>8.5207930628577483E-2</v>
       </c>
       <c r="P230">
-        <v>5.46013578763955</v>
+        <v>5.4601357876395502</v>
       </c>
       <c r="Q230" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -12821,7 +12846,7 @@
         <v>9</v>
       </c>
       <c r="F231">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -12833,22 +12858,22 @@
         <v>40</v>
       </c>
       <c r="J231">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K231">
         <v>6.67</v>
       </c>
       <c r="L231">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M231" t="s">
         <v>52</v>
       </c>
       <c r="N231">
-        <v>333815.97</v>
+        <v>333815.96999999997</v>
       </c>
       <c r="O231">
-        <v>0.05040475245229907</v>
+        <v>5.040475245229907E-2</v>
       </c>
       <c r="P231">
         <v>3.340819805766817</v>
@@ -12857,7 +12882,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -12874,7 +12899,7 @@
         <v>9</v>
       </c>
       <c r="F232">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -12886,13 +12911,13 @@
         <v>40</v>
       </c>
       <c r="J232">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K232">
         <v>6.67</v>
       </c>
       <c r="L232">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M232" t="s">
         <v>52</v>
@@ -12901,16 +12926,16 @@
         <v>349938.75</v>
       </c>
       <c r="O232">
-        <v>0.05402504943710924</v>
+        <v>5.4025049437109243E-2</v>
       </c>
       <c r="P232">
-        <v>3.580772573733641</v>
+        <v>3.5807725737336411</v>
       </c>
       <c r="Q232" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -12927,7 +12952,7 @@
         <v>2</v>
       </c>
       <c r="F233">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -12954,16 +12979,16 @@
         <v>2216341.75</v>
       </c>
       <c r="O233">
-        <v>0.4731173618882278</v>
+        <v>0.47311736188822778</v>
       </c>
       <c r="P233">
-        <v>28.88384382712014</v>
+        <v>28.883843827120138</v>
       </c>
       <c r="Q233" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -12980,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="F234">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -13016,7 +13041,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -13045,13 +13070,13 @@
         <v>0.47</v>
       </c>
       <c r="J235">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K235">
         <v>3.45</v>
       </c>
       <c r="L235">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M235" t="s">
         <v>52</v>
@@ -13060,16 +13085,16 @@
         <v>2780558.75</v>
       </c>
       <c r="O235">
-        <v>0.6195205831679101</v>
+        <v>0.61952058316791014</v>
       </c>
       <c r="P235">
-        <v>39.69301138968402</v>
+        <v>39.693011389684017</v>
       </c>
       <c r="Q235" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -13098,13 +13123,13 @@
         <v>0.47</v>
       </c>
       <c r="J236">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K236">
         <v>3.45</v>
       </c>
       <c r="L236">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M236" t="s">
         <v>52</v>
@@ -13113,16 +13138,16 @@
         <v>3164341.25</v>
       </c>
       <c r="O236">
-        <v>0.7227157318605351</v>
+        <v>0.72271573186053506</v>
       </c>
       <c r="P236">
-        <v>46.30477913995151</v>
+        <v>46.304779139951513</v>
       </c>
       <c r="Q236" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -13139,7 +13164,7 @@
         <v>9</v>
       </c>
       <c r="F237">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -13148,13 +13173,13 @@
         <v>30</v>
       </c>
       <c r="I237">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J237">
         <v>1.4</v>
       </c>
       <c r="K237">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L237">
         <v>1.554</v>
@@ -13166,16 +13191,16 @@
         <v>2666558.25</v>
       </c>
       <c r="O237">
-        <v>0.588867026665116</v>
+        <v>0.58886702666511603</v>
       </c>
       <c r="P237">
-        <v>48.58157828145036</v>
+        <v>48.581578281450362</v>
       </c>
       <c r="Q237" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -13192,7 +13217,7 @@
         <v>9</v>
       </c>
       <c r="F238">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -13201,13 +13226,13 @@
         <v>31</v>
       </c>
       <c r="I238">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J238">
         <v>1.4</v>
       </c>
       <c r="K238">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L238">
         <v>1.554</v>
@@ -13219,16 +13244,16 @@
         <v>2960605</v>
       </c>
       <c r="O238">
-        <v>0.6679331594065336</v>
+        <v>0.66793315940653364</v>
       </c>
       <c r="P238">
-        <v>55.10454075557979</v>
+        <v>55.104540755579791</v>
       </c>
       <c r="Q238" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -13245,7 +13270,7 @@
         <v>2</v>
       </c>
       <c r="F239">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -13275,13 +13300,13 @@
         <v>2.862925259824769</v>
       </c>
       <c r="P239">
-        <v>183.5208499887673</v>
+        <v>183.52084998876731</v>
       </c>
       <c r="Q239" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -13298,7 +13323,7 @@
         <v>2</v>
       </c>
       <c r="F240">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G240">
         <v>2</v>
@@ -13325,16 +13350,16 @@
         <v>3220742.25</v>
       </c>
       <c r="O240">
-        <v>3.288156713893602</v>
+        <v>3.2881567138936019</v>
       </c>
       <c r="P240">
-        <v>210.7792765316412</v>
+        <v>210.77927653164119</v>
       </c>
       <c r="Q240" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -13369,7 +13394,7 @@
         <v>7.41</v>
       </c>
       <c r="L241">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M241" t="s">
         <v>53</v>
@@ -13381,13 +13406,13 @@
         <v>4.766971253203641</v>
       </c>
       <c r="P241">
-        <v>305.4681664753004</v>
+        <v>305.46816647530039</v>
       </c>
       <c r="Q241" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -13422,7 +13447,7 @@
         <v>7.41</v>
       </c>
       <c r="L242">
-        <v>2.0007</v>
+        <v>2.0007000000000001</v>
       </c>
       <c r="M242" t="s">
         <v>53</v>
@@ -13431,16 +13456,16 @@
         <v>5208944.5</v>
       </c>
       <c r="O242">
-        <v>5.425361904474715</v>
+        <v>5.4253619044747152</v>
       </c>
       <c r="P242">
-        <v>347.6579289860546</v>
+        <v>347.65792898605463</v>
       </c>
       <c r="Q242" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -13457,7 +13482,7 @@
         <v>9</v>
       </c>
       <c r="F243">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -13469,13 +13494,13 @@
         <v>40</v>
       </c>
       <c r="J243">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K243">
         <v>6.67</v>
       </c>
       <c r="L243">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M243" t="s">
         <v>53</v>
@@ -13484,7 +13509,7 @@
         <v>12313113</v>
       </c>
       <c r="O243">
-        <v>23.82716826402594</v>
+        <v>23.827168264025939</v>
       </c>
       <c r="P243">
         <v>1579.261315232699</v>
@@ -13493,7 +13518,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -13510,7 +13535,7 @@
         <v>9</v>
       </c>
       <c r="F244">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -13522,13 +13547,13 @@
         <v>40</v>
       </c>
       <c r="J244">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K244">
         <v>6.67</v>
       </c>
       <c r="L244">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M244" t="s">
         <v>53</v>
@@ -13537,16 +13562,16 @@
         <v>12171457</v>
       </c>
       <c r="O244">
-        <v>23.34185376604358</v>
+        <v>23.341853766043581</v>
       </c>
       <c r="P244">
-        <v>1547.094739503165</v>
+        <v>1547.0947395031651</v>
       </c>
       <c r="Q244" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -13563,7 +13588,7 @@
         <v>2</v>
       </c>
       <c r="F245">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -13590,7 +13615,7 @@
         <v>3541776.75</v>
       </c>
       <c r="O245">
-        <v>3.610875232238239</v>
+        <v>3.6108752322382389</v>
       </c>
       <c r="P245">
         <v>220.4441533722979</v>
@@ -13599,7 +13624,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -13616,7 +13641,7 @@
         <v>2</v>
       </c>
       <c r="F246">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -13646,13 +13671,13 @@
         <v>3.81465887143731</v>
       </c>
       <c r="P246">
-        <v>232.8851569864048</v>
+        <v>232.88515698640481</v>
       </c>
       <c r="Q246" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -13681,13 +13706,13 @@
         <v>0.47</v>
       </c>
       <c r="J247">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K247">
         <v>3.45</v>
       </c>
       <c r="L247">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M247" t="s">
         <v>53</v>
@@ -13699,13 +13724,13 @@
         <v>13.70654725279962</v>
       </c>
       <c r="P247">
-        <v>878.1857310318956</v>
+        <v>878.18573103189556</v>
       </c>
       <c r="Q247" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -13734,13 +13759,13 @@
         <v>0.47</v>
       </c>
       <c r="J248">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K248">
         <v>3.45</v>
       </c>
       <c r="L248">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="M248" t="s">
         <v>53</v>
@@ -13749,7 +13774,7 @@
         <v>13634589</v>
       </c>
       <c r="O248">
-        <v>28.35455476043794</v>
+        <v>28.354554760437939</v>
       </c>
       <c r="P248">
         <v>1816.691318471401</v>
@@ -13758,7 +13783,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -13775,7 +13800,7 @@
         <v>9</v>
       </c>
       <c r="F249">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -13784,13 +13809,13 @@
         <v>30</v>
       </c>
       <c r="I249">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J249">
         <v>1.4</v>
       </c>
       <c r="K249">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L249">
         <v>1.554</v>
@@ -13802,16 +13827,16 @@
         <v>44001220</v>
       </c>
       <c r="O249">
-        <v>132.3908559349775</v>
+        <v>132.39085593497751</v>
       </c>
       <c r="P249">
-        <v>10922.25653689218</v>
+        <v>10922.256536892181</v>
       </c>
       <c r="Q249" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -13828,7 +13853,7 @@
         <v>9</v>
       </c>
       <c r="F250">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G250">
         <v>2</v>
@@ -13837,13 +13862,13 @@
         <v>31</v>
       </c>
       <c r="I250">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J250">
         <v>1.4</v>
       </c>
       <c r="K250">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L250">
         <v>1.554</v>
@@ -13855,7 +13880,7 @@
         <v>49707612</v>
       </c>
       <c r="O250">
-        <v>151.9409969016189</v>
+        <v>151.94099690161889</v>
       </c>
       <c r="P250">
         <v>12535.14477952834</v>
@@ -13864,7 +13889,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -13881,7 +13906,7 @@
         <v>9</v>
       </c>
       <c r="F251">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -13893,13 +13918,13 @@
         <v>40</v>
       </c>
       <c r="J251">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K251">
         <v>6.67</v>
       </c>
       <c r="L251">
-        <v>1.9343</v>
+        <v>1.9342999999999999</v>
       </c>
       <c r="M251" t="s">
         <v>54</v>
@@ -13908,16 +13933,16 @@
         <v>79260.86</v>
       </c>
       <c r="O251">
-        <v>0.02174548553161315</v>
+        <v>2.1745485531613151E-2</v>
       </c>
       <c r="P251">
-        <v>1.441287680537262</v>
+        <v>1.4412876805372621</v>
       </c>
       <c r="Q251" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -13934,7 +13959,7 @@
         <v>2</v>
       </c>
       <c r="F252">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G252">
         <v>1</v>
@@ -13958,19 +13983,19 @@
         <v>54</v>
       </c>
       <c r="N252">
-        <v>142650.17</v>
+        <v>142650.17000000001</v>
       </c>
       <c r="O252">
-        <v>0.0716749647454307</v>
+        <v>7.1674964745430697E-2</v>
       </c>
       <c r="P252">
-        <v>4.375760973469519</v>
+        <v>4.3757609734695189</v>
       </c>
       <c r="Q252" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -13987,7 +14012,7 @@
         <v>2</v>
       </c>
       <c r="F253">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G253">
         <v>2</v>
@@ -14011,19 +14036,19 @@
         <v>54</v>
       </c>
       <c r="N253">
-        <v>63949.92</v>
+        <v>63949.919999999998</v>
       </c>
       <c r="O253">
-        <v>0.00968560886669903</v>
+        <v>9.6856088666990303E-3</v>
       </c>
       <c r="P253">
-        <v>0.5913070126189885</v>
+        <v>0.59130701261898855</v>
       </c>
       <c r="Q253" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -14040,7 +14065,7 @@
         <v>9</v>
       </c>
       <c r="F254">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -14049,13 +14074,13 @@
         <v>30</v>
       </c>
       <c r="I254">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J254">
         <v>1.4</v>
       </c>
       <c r="K254">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L254">
         <v>1.554</v>
@@ -14067,16 +14092,16 @@
         <v>60955.05</v>
       </c>
       <c r="O254">
-        <v>0.007326657500718148</v>
+        <v>7.3266575007181478E-3</v>
       </c>
       <c r="P254">
-        <v>0.6044498482590955</v>
+        <v>0.60444984825909553</v>
       </c>
       <c r="Q254" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -14093,7 +14118,7 @@
         <v>2</v>
       </c>
       <c r="F255">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -14111,7 +14136,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>1</v>
       </c>
@@ -14128,7 +14153,7 @@
         <v>2</v>
       </c>
       <c r="F256">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G256">
         <v>2</v>
@@ -14146,7 +14171,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>2</v>
       </c>
@@ -14175,13 +14200,13 @@
         <v>55</v>
       </c>
       <c r="P257">
-        <v>434121.9882787063</v>
+        <v>434121.98827870633</v>
       </c>
       <c r="Q257" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>3</v>
       </c>
@@ -14210,13 +14235,13 @@
         <v>55</v>
       </c>
       <c r="P258">
-        <v>434121.9882787063</v>
+        <v>434121.98827870633</v>
       </c>
       <c r="Q258" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>4</v>
       </c>
@@ -14233,7 +14258,7 @@
         <v>9</v>
       </c>
       <c r="F259">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -14245,13 +14270,13 @@
         <v>55</v>
       </c>
       <c r="P259">
-        <v>868243.9765574125</v>
+        <v>868243.97655741253</v>
       </c>
       <c r="Q259" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>5</v>
       </c>
@@ -14268,7 +14293,7 @@
         <v>9</v>
       </c>
       <c r="F260">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G260">
         <v>2</v>
@@ -14280,13 +14305,13 @@
         <v>55</v>
       </c>
       <c r="P260">
-        <v>868243.9765574125</v>
+        <v>868243.97655741253</v>
       </c>
       <c r="Q260" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>6</v>
       </c>
@@ -14303,7 +14328,7 @@
         <v>2</v>
       </c>
       <c r="F261">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -14315,13 +14340,13 @@
         <v>55</v>
       </c>
       <c r="P261">
-        <v>4341.219882787063</v>
+        <v>4341.2198827870634</v>
       </c>
       <c r="Q261" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>7</v>
       </c>
@@ -14338,7 +14363,7 @@
         <v>2</v>
       </c>
       <c r="F262">
-        <v>2.016666666666667</v>
+        <v>2.0166666666666671</v>
       </c>
       <c r="G262">
         <v>2</v>
@@ -14350,13 +14375,13 @@
         <v>55</v>
       </c>
       <c r="P262">
-        <v>4341.219882787063</v>
+        <v>4341.2198827870634</v>
       </c>
       <c r="Q262" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>8</v>
       </c>
@@ -14391,7 +14416,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>9</v>
       </c>
@@ -14426,7 +14451,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>10</v>
       </c>
@@ -14443,13 +14468,13 @@
         <v>9</v>
       </c>
       <c r="F265">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G265">
         <v>1</v>
       </c>
       <c r="I265">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M265" t="s">
         <v>55</v>
@@ -14461,7 +14486,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>11</v>
       </c>
@@ -14478,13 +14503,13 @@
         <v>9</v>
       </c>
       <c r="F266">
-        <v>5.916666666666664</v>
+        <v>5.9166666666666643</v>
       </c>
       <c r="G266">
         <v>2</v>
       </c>
       <c r="I266">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M266" t="s">
         <v>55</v>
@@ -14497,6 +14522,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q266"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/--MANUSCRIPT--/Submission Files/Supplementary file 1- Table of quantified metabolites.xlsx
+++ b/--MANUSCRIPT--/Submission Files/Supplementary file 1- Table of quantified metabolites.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="2560" windowWidth="25340" windowHeight="12860"/>
+    <workbookView xWindow="340" yWindow="1440" windowWidth="12820" windowHeight="12860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$266</definedName>
   </definedNames>
@@ -347,6 +350,70 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="with ethanol"/>
+      <sheetName val="without ethanol"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="9">
+          <cell r="B9">
+            <v>3.8207753386220497E-5</v>
+          </cell>
+          <cell r="C9">
+            <v>5.7311630079330799E-5</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>6.5217059542449496E-3</v>
+          </cell>
+          <cell r="C14">
+            <v>9.7825589313674296E-3</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>5.9224442764008504E-4</v>
+          </cell>
+          <cell r="C19">
+            <v>8.8836664146012799E-4</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>1.06459363808662E-3</v>
+          </cell>
+          <cell r="C21">
+            <v>1.5968904571299299E-3</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>6.2056520681400603E-3</v>
+          </cell>
+          <cell r="C22">
+            <v>9.3084781022101E-3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>1.1297131791642E-3</v>
+          </cell>
+          <cell r="C24">
+            <v>1.6945697687463001E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -634,13 +701,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Q266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="O269" sqref="O269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -745,7 +818,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -798,7 +871,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -851,7 +924,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -904,7 +977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -957,7 +1030,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1010,7 +1083,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1063,7 +1136,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1116,7 +1189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1169,7 +1242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1222,7 +1295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1275,7 +1348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1375,13 +1448,14 @@
         <v>6.4975349429535818</v>
       </c>
       <c r="P14">
-        <v>416.50865018933217</v>
+        <f>1000000*AVERAGE('[1]with ethanol'!$B$14:$C$14)</f>
+        <v>8152.1324428061907</v>
       </c>
       <c r="Q14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1434,7 +1508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1487,7 +1561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1540,7 +1614,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1593,7 +1667,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1646,7 +1720,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1699,7 +1773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1752,7 +1826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1805,7 +1879,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1858,7 +1932,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1964,7 +2038,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2017,7 +2091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2070,7 +2144,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2123,7 +2197,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2176,7 +2250,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2229,7 +2303,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2282,7 +2356,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2335,7 +2409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2388,7 +2462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2441,7 +2515,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2494,7 +2568,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2600,7 +2674,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2653,7 +2727,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2706,7 +2780,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2759,7 +2833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2812,7 +2886,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2865,7 +2939,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2918,7 +2992,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2971,7 +3045,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3024,7 +3098,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3077,7 +3151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3130,7 +3204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3236,7 +3310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3289,7 +3363,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3342,7 +3416,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3395,7 +3469,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3448,7 +3522,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3501,7 +3575,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3554,7 +3628,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3607,7 +3681,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3660,7 +3734,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3766,7 +3840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3819,7 +3893,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3872,7 +3946,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3925,7 +3999,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3978,7 +4052,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4031,7 +4105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4084,7 +4158,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4137,7 +4211,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4190,7 +4264,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4243,7 +4317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4296,7 +4370,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4396,13 +4470,14 @@
         <v>0.81487810055302945</v>
       </c>
       <c r="P71">
-        <v>52.235775676476258</v>
+        <f>1000000*AVERAGE('[1]with ethanol'!$B$9:$C$9)</f>
+        <v>47.75969173277565</v>
       </c>
       <c r="Q71" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4455,7 +4530,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4508,7 +4583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4561,7 +4636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4614,7 +4689,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4667,7 +4742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4720,7 +4795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4773,7 +4848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4826,7 +4901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4879,7 +4954,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4932,7 +5007,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5032,13 +5107,14 @@
         <v>3.968448827444207E-2</v>
       </c>
       <c r="P83">
-        <v>2.5438774534898769</v>
+        <f>1000000*AVERAGE('[1]with ethanol'!$B$24:$C$24)</f>
+        <v>1412.1414739552501</v>
       </c>
       <c r="Q83" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5091,7 +5167,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5144,7 +5220,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5197,7 +5273,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5250,7 +5326,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5303,7 +5379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5356,7 +5432,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5409,7 +5485,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5462,7 +5538,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5515,7 +5591,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5568,7 +5644,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5674,7 +5750,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5727,7 +5803,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5780,7 +5856,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5833,7 +5909,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5886,7 +5962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5939,7 +6015,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5992,7 +6068,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6045,7 +6121,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6098,7 +6174,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6151,7 +6227,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6204,7 +6280,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6304,13 +6380,14 @@
         <v>22.69007671458391</v>
       </c>
       <c r="P107">
-        <v>1454.4920970887131</v>
+        <f>1000000*AVERAGE('[1]with ethanol'!$B$21:$C$21)</f>
+        <v>1330.742047608275</v>
       </c>
       <c r="Q107" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6363,7 +6440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6416,7 +6493,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6469,7 +6546,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6522,7 +6599,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6575,7 +6652,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6628,7 +6705,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6681,7 +6758,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6734,7 +6811,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6787,7 +6864,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6893,7 +6970,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6946,7 +7023,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6999,7 +7076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7052,7 +7129,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7105,7 +7182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7158,7 +7235,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7211,7 +7288,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7264,7 +7341,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7317,7 +7394,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7370,7 +7447,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7423,7 +7500,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7523,13 +7600,14 @@
         <v>44.940985394952243</v>
       </c>
       <c r="P130">
-        <v>2880.8323971123241</v>
+        <f>1000000*AVERAGE('[1]with ethanol'!$B$22:$C$22)</f>
+        <v>7757.0650851750797</v>
       </c>
       <c r="Q130" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7582,7 +7660,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7635,7 +7713,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7688,7 +7766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7741,7 +7819,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7794,7 +7872,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7847,7 +7925,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7900,7 +7978,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7953,7 +8031,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -8006,7 +8084,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8059,7 +8137,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8165,7 +8243,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8218,7 +8296,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8271,7 +8349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8324,7 +8402,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8377,7 +8455,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8430,7 +8508,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -8483,7 +8561,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8536,7 +8614,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8589,7 +8667,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8642,7 +8720,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8748,7 +8826,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8801,7 +8879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8854,7 +8932,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8907,7 +8985,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8960,7 +9038,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -9013,7 +9091,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -9066,7 +9144,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -9119,7 +9197,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -9172,7 +9250,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -9225,7 +9303,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -9278,7 +9356,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -9384,7 +9462,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -9437,7 +9515,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -9490,7 +9568,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -9543,7 +9621,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -9596,7 +9674,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -9649,7 +9727,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -9702,7 +9780,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -9755,7 +9833,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -9808,7 +9886,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -9861,7 +9939,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -9914,7 +9992,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -10020,7 +10098,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -10073,7 +10151,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -10126,7 +10204,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -10179,7 +10257,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -10232,7 +10310,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -10285,7 +10363,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -10338,7 +10416,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -10391,7 +10469,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -10444,7 +10522,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -10497,7 +10575,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -10550,7 +10628,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -10656,7 +10734,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -10709,7 +10787,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -10762,7 +10840,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -10815,7 +10893,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -10868,7 +10946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -10921,7 +10999,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -10974,7 +11052,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -11027,7 +11105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -11080,7 +11158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -11133,7 +11211,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -11186,7 +11264,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -11292,7 +11370,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -11345,7 +11423,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -11398,7 +11476,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -11451,7 +11529,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -11557,7 +11635,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -11610,7 +11688,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -11663,7 +11741,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -11716,7 +11794,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -11769,7 +11847,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -11822,7 +11900,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -11875,7 +11953,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -11928,7 +12006,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -11981,7 +12059,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -12034,7 +12112,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -12087,7 +12165,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -12193,7 +12271,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -12246,7 +12324,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -12299,7 +12377,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -12352,7 +12430,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -12405,7 +12483,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -12458,7 +12536,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -12511,7 +12589,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -12564,7 +12642,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -12664,13 +12742,14 @@
         <v>0.38959607857246947</v>
       </c>
       <c r="P227">
-        <v>24.974107600799329</v>
+        <f>1000000*AVERAGE('[1]with ethanol'!$B$19:$C$19)</f>
+        <v>740.30553455010659</v>
       </c>
       <c r="Q227" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -12723,7 +12802,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -12776,7 +12855,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -12829,7 +12908,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -12882,7 +12961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -12935,7 +13014,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -12988,7 +13067,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -13041,7 +13120,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -13094,7 +13173,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -13147,7 +13226,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -13200,7 +13279,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -13306,7 +13385,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -13359,7 +13438,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -13412,7 +13491,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -13465,7 +13544,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -13518,7 +13597,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -13571,7 +13650,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -13624,7 +13703,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -13677,7 +13756,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -13730,7 +13809,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -13783,7 +13862,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -13836,7 +13915,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -13889,7 +13968,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -13942,7 +14021,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -13995,7 +14074,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -14048,7 +14127,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -14101,7 +14180,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -14136,7 +14215,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>1</v>
       </c>
@@ -14171,7 +14250,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>2</v>
       </c>
@@ -14206,7 +14285,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>3</v>
       </c>
@@ -14241,7 +14320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>4</v>
       </c>
@@ -14276,7 +14355,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>5</v>
       </c>
@@ -14311,7 +14390,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>6</v>
       </c>
@@ -14346,7 +14425,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>7</v>
       </c>
@@ -14381,7 +14460,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>8</v>
       </c>
@@ -14416,7 +14495,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>9</v>
       </c>
@@ -14451,7 +14530,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>10</v>
       </c>
@@ -14486,7 +14565,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>11</v>
       </c>
@@ -14522,7 +14601,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q266"/>
+  <autoFilter ref="A1:Q266">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="A1_1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>